--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_38.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3614774.82375403</v>
+        <v>3712056.140166126</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7169426.494779342</v>
+        <v>6663746.09535993</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>508977.7025104002</v>
+        <v>806345.88270951</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7887913.387860837</v>
+        <v>7853161.872396998</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>414.0466301876111</v>
+        <v>14.07113985546249</v>
       </c>
       <c r="H2" t="n">
-        <v>326.6106929477625</v>
+        <v>118.6399442351581</v>
       </c>
       <c r="I2" t="n">
-        <v>162.049811826039</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>72.50477145174303</v>
       </c>
       <c r="S2" t="n">
-        <v>180.3965238602934</v>
+        <v>180.9550379164568</v>
       </c>
       <c r="T2" t="n">
-        <v>217.5972397378953</v>
+        <v>217.7045308089147</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2451643216346</v>
+        <v>251.2471250950627</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>70.5991896010577</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>75.80466700245583</v>
+        <v>136.6845543210566</v>
       </c>
       <c r="H3" t="n">
-        <v>105.7445984970349</v>
+        <v>105.8712504714823</v>
       </c>
       <c r="I3" t="n">
-        <v>66.25715099184512</v>
+        <v>66.70865780356726</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>58.43012648333454</v>
+        <v>59.24433418100826</v>
       </c>
       <c r="S3" t="n">
-        <v>159.199641718452</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>197.4557880796694</v>
+        <v>197.5086460108761</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8971665105425</v>
+        <v>225.8980292624121</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>69.3880803943628</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -823,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>49.98074158366552</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -868,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.5851113727656</v>
       </c>
       <c r="U4" t="n">
-        <v>284.3499836946353</v>
+        <v>286.28889559408</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,13 +907,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>245.0366881616345</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>124.5226615100438</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -981,10 +983,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554007</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933836</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.5310119231965</v>
@@ -1066,16 +1068,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,28 +1098,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>213.8524658611804</v>
       </c>
       <c r="X7" t="n">
-        <v>224.8050054269437</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>3.10299853296011</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>89.23931005028571</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>89.07602811714224</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1339,13 +1341,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>141.3865903334045</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1382,13 +1384,13 @@
         <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534533</v>
+        <v>410.9217256534535</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292604</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,10 +1423,10 @@
         <v>109.1877617881759</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589025</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V11" t="n">
         <v>327.752258470135</v>
@@ -1464,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1528,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>86.7590680062865</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>47.36822999739827</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1658,7 +1660,7 @@
         <v>109.1877617881759</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.9951719589016</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1768,10 +1770,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>40.90116128765602</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1782,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983812</v>
@@ -1813,25 +1815,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>103.2361315900643</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1850,10 +1852,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722612</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
@@ -1862,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1897,7 @@
         <v>109.1877617881759</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396191</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1907,7 +1909,7 @@
         <v>349.2409687174131</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>24.28294625218486</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2062,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>165.3848965658445</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634798</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2090,16 +2092,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534535</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396202</v>
@@ -2138,13 +2140,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,25 +2241,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>38.81758817917141</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2302,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>184.8256450265065</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,16 +2487,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>86.04141908549637</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,22 +2529,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>59.35951326836105</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2716,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2731,7 +2733,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>65.59378492430369</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>113.0982246649001</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2956,10 +2958,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>41.66276490624193</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3001,22 +3003,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>175.2510841965442</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3126,7 +3128,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>138.2550504090116</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>125.6698913257022</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>107.0385432452867</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>30.93495374438042</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>103.8441182500056</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>124.4488784861026</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>103.1780851413951</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>47.35522289712168</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>148.1920955585162</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>177.9720195032435</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>244.6349084326872</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>210.5607135509023</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>244.9460685636653</v>
+        <v>27.05486140380912</v>
       </c>
       <c r="X34" t="n">
-        <v>184.1327256161115</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>177.0077235791691</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>341.1569118905549</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>323.6959619980819</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>313.1061118477573</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>340.3534402993361</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>365.2991159687858</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>369.3447958805278</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>253.0308346143948</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>67.61083201525017</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>162.3410403666946</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
-        <v>209.4182421859766</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>286.1753286972092</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>307.6640389444873</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>328.1541709055434</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>344.6610088831279</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3360,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247554</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>138.2550504090116</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>107.0385432452867</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>104.8570328736435</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>103.8441182500056</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>124.4488784861026</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>103.1780851413951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>51.74781219643965</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>47.35522289712166</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>148.1920955585162</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>177.9720195032435</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>244.6349084326872</v>
+        <v>34.86665019865698</v>
       </c>
       <c r="V37" t="n">
-        <v>210.5607135509023</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>244.9460685636653</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>184.1327256161115</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>177.0077235791691</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>341.1569118905549</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>323.6959619980819</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>313.1061118477573</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>340.3534402993361</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>365.2991159687858</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>369.3447958805278</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H38" t="n">
-        <v>253.0308346143948</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>67.61083201525021</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>162.3410403666945</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>209.4182421859763</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V38" t="n">
-        <v>286.1753286972092</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>307.6640389444873</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>328.1541709055445</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>344.6610088831279</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3602,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247658</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>138.2550504090116</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>125.6698913257022</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>107.0385432452867</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>104.8570328736435</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>103.8441182500056</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>124.4488784861026</v>
+        <v>41.45703344346373</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>29.25600601213206</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>47.35522289712168</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>148.1920955585162</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>177.9720195032435</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>244.6349084326872</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>210.5607135509023</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>244.9460685636653</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>184.1327256161115</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>177.0077235791691</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>341.1569118905549</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>323.6959619980819</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>313.1061118477573</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>340.3534402993361</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>365.2991159687858</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>369.3447958805278</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>253.0308346143948</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>67.61083201525021</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>162.3410403666945</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
-        <v>209.4182421859766</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>286.1753286972092</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>307.6640389444873</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>328.1541709055434</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>344.6610088831279</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734102899</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>138.2550504090116</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>125.6698913257022</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>107.0385432452867</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>104.8570328736435</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>103.8441182500056</v>
+        <v>35.66730501685385</v>
       </c>
       <c r="G43" t="n">
-        <v>124.4488784861026</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>103.1780851413951</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>54.77549063691246</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>47.35522289712168</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>148.1920955585162</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>177.9720195032435</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>244.6349084326872</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>210.5607135509023</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>244.9460685636653</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>184.1327256161115</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>48.31015381299351</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>341.156911890555</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>323.6959619980819</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>313.1061118477573</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>340.3534402993362</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>365.2991159687858</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>369.3447958805278</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>253.0308346143948</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>67.61083201525021</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T44" t="n">
-        <v>162.3410403666946</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
-        <v>209.4182421859757</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V44" t="n">
-        <v>286.1753286972093</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>307.6640389444874</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>328.1541709055434</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>344.661008883128</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4076,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247658</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>138.2550504090117</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>125.6698913257022</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>107.0385432452867</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>104.8570328736435</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>99.59542696993208</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>103.1780851413951</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>54.77549063691247</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>47.35522289712171</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>148.1920955585163</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>177.9720195032436</v>
+        <v>87.3174019223929</v>
       </c>
       <c r="U46" t="n">
-        <v>244.6349084326872</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>210.5607135509024</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>244.9460685636654</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>184.1327256161115</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>177.0077235791692</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1335.609029059938</v>
+        <v>188.3061270544392</v>
       </c>
       <c r="C2" t="n">
-        <v>966.6465121195264</v>
+        <v>188.3061270544392</v>
       </c>
       <c r="D2" t="n">
-        <v>966.6465121195264</v>
+        <v>188.3061270544392</v>
       </c>
       <c r="E2" t="n">
-        <v>966.6465121195264</v>
+        <v>188.3061270544392</v>
       </c>
       <c r="F2" t="n">
-        <v>959.7010113703229</v>
+        <v>181.3606263052358</v>
       </c>
       <c r="G2" t="n">
-        <v>541.4720919888975</v>
+        <v>167.1473537239605</v>
       </c>
       <c r="H2" t="n">
-        <v>211.5623011325718</v>
+        <v>47.30902621369984</v>
       </c>
       <c r="I2" t="n">
-        <v>47.87562252041122</v>
+        <v>47.30902621369984</v>
       </c>
       <c r="J2" t="n">
-        <v>141.5902599558858</v>
+        <v>138.9642385015914</v>
       </c>
       <c r="K2" t="n">
-        <v>402.7890127056972</v>
+        <v>397.0764468060719</v>
       </c>
       <c r="L2" t="n">
-        <v>779.1057898077086</v>
+        <v>769.5640925927207</v>
       </c>
       <c r="M2" t="n">
-        <v>1214.437258286961</v>
+        <v>1200.634914689015</v>
       </c>
       <c r="N2" t="n">
-        <v>1642.180847505433</v>
+        <v>1624.048915811684</v>
       </c>
       <c r="O2" t="n">
-        <v>2000.899351593627</v>
+        <v>1978.679112633676</v>
       </c>
       <c r="P2" t="n">
-        <v>2269.38291267946</v>
+        <v>2243.673398054136</v>
       </c>
       <c r="Q2" t="n">
-        <v>2393.781126020561</v>
+        <v>2365.451310684992</v>
       </c>
       <c r="R2" t="n">
-        <v>2393.781126020561</v>
+        <v>2292.214167804444</v>
       </c>
       <c r="S2" t="n">
-        <v>2211.562415050567</v>
+        <v>2109.431301222164</v>
       </c>
       <c r="T2" t="n">
-        <v>1991.767223396128</v>
+        <v>1889.527734748513</v>
       </c>
       <c r="U2" t="n">
-        <v>1737.98422913185</v>
+        <v>1635.742759905015</v>
       </c>
       <c r="V2" t="n">
-        <v>1406.921341788279</v>
+        <v>1304.679872561445</v>
       </c>
       <c r="W2" t="n">
-        <v>1335.609029059938</v>
+        <v>951.9112172913308</v>
       </c>
       <c r="X2" t="n">
-        <v>1335.609029059938</v>
+        <v>578.445459030251</v>
       </c>
       <c r="Y2" t="n">
-        <v>1335.609029059938</v>
+        <v>188.3061270544392</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>927.34458604877</v>
+        <v>988.8568241913216</v>
       </c>
       <c r="C3" t="n">
-        <v>752.891556767643</v>
+        <v>814.4037949101946</v>
       </c>
       <c r="D3" t="n">
-        <v>603.9571471063917</v>
+        <v>665.4693852489434</v>
       </c>
       <c r="E3" t="n">
-        <v>444.7196921009362</v>
+        <v>506.2319302434878</v>
       </c>
       <c r="F3" t="n">
-        <v>298.1851341278212</v>
+        <v>359.6973722703728</v>
       </c>
       <c r="G3" t="n">
-        <v>221.6147634182699</v>
+        <v>221.6321658854671</v>
       </c>
       <c r="H3" t="n">
-        <v>114.8020376636891</v>
+        <v>114.6915088435658</v>
       </c>
       <c r="I3" t="n">
-        <v>47.87562252041122</v>
+        <v>47.30902621369984</v>
       </c>
       <c r="J3" t="n">
-        <v>109.9980388844384</v>
+        <v>52.12709798582796</v>
       </c>
       <c r="K3" t="n">
-        <v>342.7959862782694</v>
+        <v>282.8286256313401</v>
       </c>
       <c r="L3" t="n">
-        <v>717.2259518871829</v>
+        <v>654.4396961743732</v>
       </c>
       <c r="M3" t="n">
-        <v>1206.147282672564</v>
+        <v>1140.071509376563</v>
       </c>
       <c r="N3" t="n">
-        <v>1723.715919640466</v>
+        <v>1654.263565019111</v>
       </c>
       <c r="O3" t="n">
-        <v>2084.083853045434</v>
+        <v>2058.233162108983</v>
       </c>
       <c r="P3" t="n">
-        <v>2393.781126020561</v>
+        <v>2365.451310684992</v>
       </c>
       <c r="Q3" t="n">
-        <v>2393.781126020561</v>
+        <v>2365.451310684992</v>
       </c>
       <c r="R3" t="n">
-        <v>2334.760796239415</v>
+        <v>2305.608548885994</v>
       </c>
       <c r="S3" t="n">
-        <v>2173.953077331887</v>
+        <v>2305.608548885994</v>
       </c>
       <c r="T3" t="n">
-        <v>1974.502786342322</v>
+        <v>2106.104866046725</v>
       </c>
       <c r="U3" t="n">
-        <v>1746.323830271067</v>
+        <v>1877.925038508935</v>
       </c>
       <c r="V3" t="n">
-        <v>1511.171722039325</v>
+        <v>1642.772930277192</v>
       </c>
       <c r="W3" t="n">
-        <v>1511.171722039325</v>
+        <v>1572.683960181876</v>
       </c>
       <c r="X3" t="n">
-        <v>1303.320221833792</v>
+        <v>1364.832459976343</v>
       </c>
       <c r="Y3" t="n">
-        <v>1095.559923068838</v>
+        <v>1157.07216121139</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47.87562252041122</v>
+        <v>97.79462377295795</v>
       </c>
       <c r="C4" t="n">
-        <v>47.87562252041122</v>
+        <v>97.79462377295795</v>
       </c>
       <c r="D4" t="n">
-        <v>47.87562252041122</v>
+        <v>97.79462377295795</v>
       </c>
       <c r="E4" t="n">
-        <v>47.87562252041122</v>
+        <v>47.30902621369984</v>
       </c>
       <c r="F4" t="n">
-        <v>47.87562252041122</v>
+        <v>47.30902621369984</v>
       </c>
       <c r="G4" t="n">
-        <v>47.87562252041122</v>
+        <v>47.30902621369984</v>
       </c>
       <c r="H4" t="n">
-        <v>47.87562252041122</v>
+        <v>47.30902621369984</v>
       </c>
       <c r="I4" t="n">
-        <v>47.87562252041122</v>
+        <v>47.30902621369984</v>
       </c>
       <c r="J4" t="n">
-        <v>47.87562252041122</v>
+        <v>47.30902621369984</v>
       </c>
       <c r="K4" t="n">
-        <v>90.63644251300019</v>
+        <v>88.8052941018162</v>
       </c>
       <c r="L4" t="n">
-        <v>200.8820046714239</v>
+        <v>197.4326649365666</v>
       </c>
       <c r="M4" t="n">
-        <v>327.5096154935658</v>
+        <v>322.3541198950604</v>
       </c>
       <c r="N4" t="n">
-        <v>456.5609211788367</v>
+        <v>449.739838289675</v>
       </c>
       <c r="O4" t="n">
-        <v>559.7443940237918</v>
+        <v>551.3848716885941</v>
       </c>
       <c r="P4" t="n">
-        <v>624.5149983095288</v>
+        <v>614.8390752546203</v>
       </c>
       <c r="Q4" t="n">
-        <v>624.5149983095288</v>
+        <v>614.8390752546203</v>
       </c>
       <c r="R4" t="n">
-        <v>624.5149983095288</v>
+        <v>614.8390752546203</v>
       </c>
       <c r="S4" t="n">
-        <v>624.5149983095288</v>
+        <v>614.8390752546203</v>
       </c>
       <c r="T4" t="n">
-        <v>624.5149983095288</v>
+        <v>386.9753263932408</v>
       </c>
       <c r="U4" t="n">
-        <v>337.2927925573719</v>
+        <v>97.79462377295795</v>
       </c>
       <c r="V4" t="n">
-        <v>337.2927925573719</v>
+        <v>97.79462377295795</v>
       </c>
       <c r="W4" t="n">
-        <v>47.87562252041122</v>
+        <v>97.79462377295795</v>
       </c>
       <c r="X4" t="n">
-        <v>47.87562252041122</v>
+        <v>97.79462377295795</v>
       </c>
       <c r="Y4" t="n">
-        <v>47.87562252041122</v>
+        <v>97.79462377295795</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1964.838184214438</v>
+        <v>1077.074462393506</v>
       </c>
       <c r="C5" t="n">
-        <v>1595.875667274027</v>
+        <v>708.1119454530944</v>
       </c>
       <c r="D5" t="n">
-        <v>1595.875667274027</v>
+        <v>708.1119454530944</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>322.3236928548502</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>315.3781921056467</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>301.4547880442377</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4592,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2571.368624846461</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2571.368624846461</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2317.606839484552</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V5" t="n">
-        <v>2317.606839484552</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W5" t="n">
-        <v>1964.838184214438</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="X5" t="n">
-        <v>1964.838184214438</v>
+        <v>1463.674302457628</v>
       </c>
       <c r="Y5" t="n">
-        <v>1964.838184214438</v>
+        <v>1463.674302457628</v>
       </c>
     </row>
     <row r="6">
@@ -4629,7 +4631,7 @@
         <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
         <v>359.3385232961344</v>
@@ -4653,10 +4655,10 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>257.3478788207</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C7" t="n">
-        <v>257.3478788207</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D7" t="n">
-        <v>257.3478788207</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E7" t="n">
-        <v>257.3478788207</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>257.3478788207</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>484.4236418782189</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>484.4236418782189</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W7" t="n">
-        <v>484.4236418782189</v>
+        <v>222.942782082032</v>
       </c>
       <c r="X7" t="n">
-        <v>257.3478788207</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y7" t="n">
-        <v>257.3478788207</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1640.777806202926</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="C8" t="n">
-        <v>1271.815289262514</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D8" t="n">
-        <v>1271.815289262514</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E8" t="n">
-        <v>886.0270366642701</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>475.0411318746625</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>57.07732377284941</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4832,22 +4834,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>1993.54646147304</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W8" t="n">
-        <v>1640.777806202926</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X8" t="n">
-        <v>1640.777806202926</v>
+        <v>2122.040411278466</v>
       </c>
       <c r="Y8" t="n">
-        <v>1640.777806202926</v>
+        <v>1731.901079302655</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4884,10 +4886,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4920,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4989,25 @@
         <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>365.6939024587809</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T10" t="n">
-        <v>365.6939024587809</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U10" t="n">
-        <v>365.6939024587809</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="V10" t="n">
-        <v>365.6939024587809</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="W10" t="n">
-        <v>365.6939024587809</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="X10" t="n">
-        <v>222.8791647482714</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.8791647482714</v>
+        <v>290.8087152951862</v>
       </c>
     </row>
     <row r="11">
@@ -5027,49 +5029,49 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551621</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089258</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.328657580449</v>
+        <v>2628.734306600803</v>
       </c>
       <c r="N11" t="n">
-        <v>3008.107474639231</v>
+        <v>3189.361480106701</v>
       </c>
       <c r="O11" t="n">
-        <v>3800.722831322501</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679679</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
         <v>4208.252829604875</v>
@@ -5094,52 +5096,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5160,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.8133219477185</v>
+        <v>596.3482642844385</v>
       </c>
       <c r="C13" t="n">
-        <v>803.8133219477185</v>
+        <v>427.4120813565316</v>
       </c>
       <c r="D13" t="n">
-        <v>653.6966825353827</v>
+        <v>427.4120813565316</v>
       </c>
       <c r="E13" t="n">
-        <v>653.6966825353827</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H13" t="n">
         <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5212,37 +5214,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1866.513008862231</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1866.513008862231</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1577.410141987875</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V13" t="n">
-        <v>1322.725653781988</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="W13" t="n">
-        <v>1033.308483745027</v>
+        <v>998.7893082582084</v>
       </c>
       <c r="X13" t="n">
-        <v>1033.308483745027</v>
+        <v>998.7893082582084</v>
       </c>
       <c r="Y13" t="n">
-        <v>985.4617867779582</v>
+        <v>777.9967291146783</v>
       </c>
     </row>
     <row r="14">
@@ -5267,7 +5269,7 @@
         <v>850.2139837551622</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089258</v>
@@ -5285,19 +5287,19 @@
         <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483405</v>
+        <v>2536.153662641309</v>
       </c>
       <c r="N14" t="n">
-        <v>3070.887536710052</v>
+        <v>3082.932479700092</v>
       </c>
       <c r="O14" t="n">
-        <v>3757.393206660291</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5367,16 +5369,16 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>401.9038525862958</v>
+        <v>656.9233744498081</v>
       </c>
       <c r="C16" t="n">
-        <v>401.9038525862958</v>
+        <v>656.9233744498081</v>
       </c>
       <c r="D16" t="n">
-        <v>401.9038525862958</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E16" t="n">
-        <v>360.5895482553301</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F16" t="n">
-        <v>360.5895482553301</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G16" t="n">
-        <v>192.8867116300491</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H16" t="n">
         <v>192.8867116300491</v>
@@ -5461,25 +5463,25 @@
         <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1866.513008862231</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T16" t="n">
-        <v>1644.746393431757</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U16" t="n">
-        <v>1355.6435265574</v>
+        <v>1348.781588460539</v>
       </c>
       <c r="V16" t="n">
-        <v>1100.959038351514</v>
+        <v>1348.781588460539</v>
       </c>
       <c r="W16" t="n">
-        <v>811.5418683145529</v>
+        <v>1059.364418423578</v>
       </c>
       <c r="X16" t="n">
-        <v>583.5523174165355</v>
+        <v>1059.364418423578</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.5523174165355</v>
+        <v>838.5718392800478</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
         <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551621</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
@@ -5519,13 +5521,13 @@
         <v>939.1634975427193</v>
       </c>
       <c r="L17" t="n">
-        <v>1472.533259768727</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M17" t="n">
-        <v>2006.065164440652</v>
+        <v>2383.05734389077</v>
       </c>
       <c r="N17" t="n">
-        <v>2985.817436667298</v>
+        <v>3362.809616117416</v>
       </c>
       <c r="O17" t="n">
         <v>3865.782086996753</v>
@@ -5543,22 +5545,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>3154.542034367488</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>2980.089005086361</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>2831.15459542511</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>2671.917140419654</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>2525.382582446539</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>2389.019482279157</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>2298.517587917024</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839442</v>
+        <v>2279.510296318562</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>2373.187565809179</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193588</v>
+        <v>2611.451764789528</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>2978.149925102193</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.47698845434</v>
+        <v>3425.426250324509</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008794</v>
+        <v>3898.949293878964</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>4309.910573297018</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>4620.410164773121</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549551</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>4777.907369012236</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>4648.469482505716</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>4455.826482183571</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>4227.758635317987</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216076</v>
+        <v>3992.606527086244</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>3738.369170358043</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>3530.51767015251</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>3322.757371387556</v>
       </c>
     </row>
     <row r="19">
@@ -5647,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>339.7766591279594</v>
+        <v>217.4149401676096</v>
       </c>
       <c r="C19" t="n">
-        <v>339.7766591279594</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="D19" t="n">
-        <v>339.7766591279594</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="E19" t="n">
-        <v>339.7766591279594</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F19" t="n">
         <v>192.8867116300491</v>
@@ -5710,13 +5712,13 @@
         <v>909.27315417834</v>
       </c>
       <c r="W19" t="n">
-        <v>742.2177031017293</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X19" t="n">
-        <v>742.2177031017293</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="Y19" t="n">
-        <v>521.4251239581992</v>
+        <v>399.0634049978493</v>
       </c>
     </row>
     <row r="20">
@@ -5732,19 +5734,19 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
@@ -5753,22 +5755,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427193</v>
+        <v>901.0652231938168</v>
       </c>
       <c r="L20" t="n">
-        <v>1803.682313196074</v>
+        <v>1352.099436442225</v>
       </c>
       <c r="M20" t="n">
-        <v>2337.214217867998</v>
+        <v>2330.649739272054</v>
       </c>
       <c r="N20" t="n">
-        <v>2985.817436667298</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O20" t="n">
-        <v>3865.782086996753</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P20" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
         <v>4719.034655862919</v>
@@ -5783,19 +5785,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5844,13 +5846,13 @@
         <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3274.298451830496</v>
+        <v>654.9300288380085</v>
       </c>
       <c r="C22" t="n">
-        <v>3274.298451830496</v>
+        <v>485.9938459101016</v>
       </c>
       <c r="D22" t="n">
-        <v>3124.18181241816</v>
+        <v>485.9938459101016</v>
       </c>
       <c r="E22" t="n">
-        <v>3124.18181241816</v>
+        <v>485.9938459101016</v>
       </c>
       <c r="F22" t="n">
-        <v>3084.972127388694</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G22" t="n">
-        <v>2917.269290763413</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H22" t="n">
-        <v>2917.269290763413</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I22" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>4778.051722419721</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S22" t="n">
-        <v>4778.051722419721</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T22" t="n">
-        <v>4556.285106989247</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="U22" t="n">
-        <v>4267.18224011489</v>
+        <v>1385.724257814701</v>
       </c>
       <c r="V22" t="n">
-        <v>4012.497751909003</v>
+        <v>1131.039769608814</v>
       </c>
       <c r="W22" t="n">
-        <v>3723.080581872043</v>
+        <v>841.6225995718535</v>
       </c>
       <c r="X22" t="n">
-        <v>3495.091030974026</v>
+        <v>654.9300288380085</v>
       </c>
       <c r="Y22" t="n">
-        <v>3274.298451830496</v>
+        <v>654.9300288380085</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5987,22 +5989,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>785.6651881176192</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1236.699401366028</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2215.249704195856</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N23" t="n">
-        <v>3195.001976422503</v>
+        <v>3008.107474639231</v>
       </c>
       <c r="O23" t="n">
-        <v>4074.966626751957</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P23" t="n">
         <v>4470.748294107237</v>
@@ -6014,25 +6016,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6084,10 +6086,10 @@
         <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>633.9069394924948</v>
+        <v>499.3208352874786</v>
       </c>
       <c r="C25" t="n">
-        <v>633.9069394924948</v>
+        <v>330.3846523595718</v>
       </c>
       <c r="D25" t="n">
-        <v>633.9069394924948</v>
+        <v>330.3846523595718</v>
       </c>
       <c r="E25" t="n">
-        <v>485.9938459101016</v>
+        <v>182.4715587771786</v>
       </c>
       <c r="F25" t="n">
-        <v>339.1038984121913</v>
+        <v>182.4715587771786</v>
       </c>
       <c r="G25" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6175,22 +6177,22 @@
         <v>1674.827124689057</v>
       </c>
       <c r="T25" t="n">
-        <v>1674.827124689057</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U25" t="n">
-        <v>1385.724257814701</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="V25" t="n">
-        <v>1385.724257814701</v>
+        <v>1198.376021052696</v>
       </c>
       <c r="W25" t="n">
-        <v>1096.30708777774</v>
+        <v>908.9588510157357</v>
       </c>
       <c r="X25" t="n">
-        <v>1036.347983466265</v>
+        <v>680.9693001177184</v>
       </c>
       <c r="Y25" t="n">
-        <v>815.5554043227345</v>
+        <v>680.9693001177184</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551634</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563072</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483405</v>
+        <v>2337.214217867998</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542187</v>
+        <v>2883.99303492678</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>3692.333950986039</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6300,13 +6302,13 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L27" t="n">
         <v>794.2006632320247</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.9597618327374</v>
+        <v>3527.225701553766</v>
       </c>
       <c r="C28" t="n">
-        <v>784.0235789048305</v>
+        <v>3358.289518625859</v>
       </c>
       <c r="D28" t="n">
-        <v>633.9069394924948</v>
+        <v>3358.289518625859</v>
       </c>
       <c r="E28" t="n">
-        <v>485.9938459101016</v>
+        <v>3210.376425043466</v>
       </c>
       <c r="F28" t="n">
-        <v>339.1038984121913</v>
+        <v>3063.486477545556</v>
       </c>
       <c r="G28" t="n">
-        <v>339.1038984121913</v>
+        <v>3063.486477545556</v>
       </c>
       <c r="H28" t="n">
-        <v>192.8867116300491</v>
+        <v>2917.269290763414</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763414</v>
       </c>
       <c r="J28" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210349</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442063</v>
+        <v>3166.379106159225</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.938904607721</v>
       </c>
       <c r="M28" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.09595020727</v>
       </c>
       <c r="N28" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913135</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>4467.833925833548</v>
       </c>
       <c r="P28" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267207</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104703</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862231</v>
+        <v>4711.795374011334</v>
       </c>
       <c r="S28" t="n">
-        <v>1866.513008862231</v>
+        <v>4520.109489838161</v>
       </c>
       <c r="T28" t="n">
-        <v>1866.513008862231</v>
+        <v>4520.109489838161</v>
       </c>
       <c r="U28" t="n">
-        <v>1577.410141987875</v>
+        <v>4520.109489838161</v>
       </c>
       <c r="V28" t="n">
-        <v>1577.410141987875</v>
+        <v>4265.425001632274</v>
       </c>
       <c r="W28" t="n">
-        <v>1287.992971950914</v>
+        <v>3976.007831595313</v>
       </c>
       <c r="X28" t="n">
-        <v>1173.752340976268</v>
+        <v>3748.018280697296</v>
       </c>
       <c r="Y28" t="n">
-        <v>952.9597618327374</v>
+        <v>3527.225701553766</v>
       </c>
     </row>
     <row r="29">
@@ -6437,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>785.6651881176192</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1650.184003770974</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M29" t="n">
-        <v>2183.715908442898</v>
+        <v>1832.617028429937</v>
       </c>
       <c r="N29" t="n">
-        <v>2730.49472550168</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O29" t="n">
-        <v>3610.459375831135</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q29" t="n">
         <v>4653.975400188666</v>
@@ -6494,19 +6496,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6543,25 +6545,25 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6595,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>708.7441371531723</v>
+        <v>749.8045919840855</v>
       </c>
       <c r="C31" t="n">
-        <v>539.8079542252655</v>
+        <v>580.8684090561786</v>
       </c>
       <c r="D31" t="n">
-        <v>389.6913148129298</v>
+        <v>430.7517696438429</v>
       </c>
       <c r="E31" t="n">
-        <v>241.7782212305366</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F31" t="n">
         <v>241.7782212305366</v>
@@ -6649,22 +6651,22 @@
         <v>1764.657581931529</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="U31" t="n">
-        <v>1365.869669332829</v>
+        <v>1475.554715057173</v>
       </c>
       <c r="V31" t="n">
-        <v>1111.185181126942</v>
+        <v>1220.870226851286</v>
       </c>
       <c r="W31" t="n">
-        <v>1111.185181126942</v>
+        <v>931.4530568143252</v>
       </c>
       <c r="X31" t="n">
-        <v>1111.185181126942</v>
+        <v>931.4530568143252</v>
       </c>
       <c r="Y31" t="n">
-        <v>890.3926019834121</v>
+        <v>931.4530568143252</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6704,19 +6706,19 @@
         <v>785.6651881176192</v>
       </c>
       <c r="L32" t="n">
-        <v>1236.699401366028</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M32" t="n">
-        <v>1770.231306037952</v>
+        <v>2628.734306600802</v>
       </c>
       <c r="N32" t="n">
-        <v>2749.983578264599</v>
+        <v>3175.513123659584</v>
       </c>
       <c r="O32" t="n">
-        <v>3629.948228594053</v>
+        <v>4055.477773989039</v>
       </c>
       <c r="P32" t="n">
-        <v>4343.303316041</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
         <v>4719.034655862919</v>
@@ -6731,19 +6733,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
@@ -6801,28 +6803,28 @@
         <v>2594.102460549551</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>696.6867619159425</v>
+        <v>972.7495048756253</v>
       </c>
       <c r="C34" t="n">
-        <v>569.7474777485666</v>
+        <v>803.8133219477185</v>
       </c>
       <c r="D34" t="n">
-        <v>461.6277370967618</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="E34" t="n">
-        <v>430.3803090721351</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F34" t="n">
-        <v>325.4872603347557</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G34" t="n">
-        <v>199.7813224700056</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>181.8448273705264</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>426.9931707945991</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
-        <v>784.7141297182916</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>1170.032335793037</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>1552.601872974098</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1893.092632369708</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
-        <v>2166.861293278563</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>2285.632749906274</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>2237.799191424333</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S34" t="n">
-        <v>2088.11020601169</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T34" t="n">
-        <v>1908.340489341748</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="U34" t="n">
-        <v>1661.234521227922</v>
+        <v>1475.554715057173</v>
       </c>
       <c r="V34" t="n">
-        <v>1448.546931782566</v>
+        <v>1220.870226851286</v>
       </c>
       <c r="W34" t="n">
-        <v>1201.126660506137</v>
+        <v>1193.542084019155</v>
       </c>
       <c r="X34" t="n">
-        <v>1015.13400836865</v>
+        <v>1193.542084019155</v>
       </c>
       <c r="Y34" t="n">
-        <v>836.3383279856512</v>
+        <v>972.7495048756253</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2067.381871868337</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>1740.416253688457</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1424.147453842237</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
-        <v>1080.356100004524</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>711.3670939754471</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
-        <v>338.2915425809745</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H35" t="n">
-        <v>82.7048409502727</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>82.7048409502727</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>271.5839719092982</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>926.3073040445977</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1377.341517293007</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>1910.873421964931</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N35" t="n">
-        <v>2890.625694191578</v>
+        <v>3008.107474639231</v>
       </c>
       <c r="O35" t="n">
-        <v>3433.164252843972</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P35" t="n">
-        <v>3827.93861920115</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q35" t="n">
-        <v>4076.224980956832</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
-        <v>4135.242047513635</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4066.948277801261</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>3902.967428946014</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>3691.433850980381</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3402.367862397341</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3091.596105887758</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>2760.127246387209</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2411.984813171928</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>957.7365789991968</v>
+        <v>3154.542034367488</v>
       </c>
       <c r="C36" t="n">
-        <v>783.2835497180698</v>
+        <v>2980.089005086361</v>
       </c>
       <c r="D36" t="n">
-        <v>634.3491400568187</v>
+        <v>2831.15459542511</v>
       </c>
       <c r="E36" t="n">
-        <v>475.1116850513631</v>
+        <v>2671.917140419654</v>
       </c>
       <c r="F36" t="n">
-        <v>328.5771270782482</v>
+        <v>2525.382582446539</v>
       </c>
       <c r="G36" t="n">
-        <v>192.214026910867</v>
+        <v>2389.019482279157</v>
       </c>
       <c r="H36" t="n">
-        <v>101.7121325487346</v>
+        <v>2298.517587917024</v>
       </c>
       <c r="I36" t="n">
-        <v>82.7048409502727</v>
+        <v>2279.510296318564</v>
       </c>
       <c r="J36" t="n">
-        <v>176.3821104408898</v>
+        <v>2373.187565809181</v>
       </c>
       <c r="K36" t="n">
-        <v>414.6463094212368</v>
+        <v>2611.451764789528</v>
       </c>
       <c r="L36" t="n">
-        <v>781.3444697339023</v>
+        <v>2978.149925102193</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.620794956218</v>
+        <v>3425.426250324509</v>
       </c>
       <c r="N36" t="n">
-        <v>1702.143838510673</v>
+        <v>3898.949293878964</v>
       </c>
       <c r="O36" t="n">
-        <v>2113.105117928727</v>
+        <v>4309.910573297018</v>
       </c>
       <c r="P36" t="n">
-        <v>2423.60470940483</v>
+        <v>4620.410164773121</v>
       </c>
       <c r="Q36" t="n">
-        <v>2581.24626705143</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R36" t="n">
-        <v>2581.101913643945</v>
+        <v>4777.907369012236</v>
       </c>
       <c r="S36" t="n">
-        <v>2451.664027137425</v>
+        <v>4648.469482505716</v>
       </c>
       <c r="T36" t="n">
-        <v>2259.02102681528</v>
+        <v>4455.826482183571</v>
       </c>
       <c r="U36" t="n">
-        <v>2030.953179949696</v>
+        <v>4227.758635317987</v>
       </c>
       <c r="V36" t="n">
-        <v>1795.801071717953</v>
+        <v>3992.606527086244</v>
       </c>
       <c r="W36" t="n">
-        <v>1541.563714989752</v>
+        <v>3738.369170358043</v>
       </c>
       <c r="X36" t="n">
-        <v>1333.712214784219</v>
+        <v>3530.51767015251</v>
       </c>
       <c r="Y36" t="n">
-        <v>1125.951916019265</v>
+        <v>3322.757371387556</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>683.8305684178213</v>
+        <v>3501.350626910591</v>
       </c>
       <c r="C37" t="n">
-        <v>683.8305684178213</v>
+        <v>3332.414443982684</v>
       </c>
       <c r="D37" t="n">
-        <v>575.7108277660166</v>
+        <v>3182.297804570348</v>
       </c>
       <c r="E37" t="n">
-        <v>469.7946329441544</v>
+        <v>3182.297804570348</v>
       </c>
       <c r="F37" t="n">
-        <v>364.9015842067751</v>
+        <v>3182.297804570348</v>
       </c>
       <c r="G37" t="n">
-        <v>239.195646342025</v>
+        <v>3014.594967945067</v>
       </c>
       <c r="H37" t="n">
-        <v>134.9753583204138</v>
+        <v>3014.594967945067</v>
       </c>
       <c r="I37" t="n">
-        <v>82.7048409502727</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="J37" t="n">
-        <v>168.9886338724046</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K37" t="n">
-        <v>414.1369772964774</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L37" t="n">
-        <v>771.85793622017</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M37" t="n">
-        <v>1157.176142294915</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N37" t="n">
-        <v>1539.745679475976</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O37" t="n">
-        <v>1880.236438871586</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P37" t="n">
-        <v>2154.005099780442</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q37" t="n">
-        <v>2272.776556408153</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R37" t="n">
-        <v>2224.942997926212</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="S37" t="n">
-        <v>2075.254012513569</v>
+        <v>4496.535381004075</v>
       </c>
       <c r="T37" t="n">
-        <v>1895.484295843626</v>
+        <v>4274.768765573601</v>
       </c>
       <c r="U37" t="n">
-        <v>1648.378327729801</v>
+        <v>4239.549926989099</v>
       </c>
       <c r="V37" t="n">
-        <v>1435.690738284445</v>
+        <v>4239.549926989099</v>
       </c>
       <c r="W37" t="n">
-        <v>1188.270467008015</v>
+        <v>3950.132756952138</v>
       </c>
       <c r="X37" t="n">
-        <v>1002.277814870529</v>
+        <v>3722.143206054121</v>
       </c>
       <c r="Y37" t="n">
-        <v>823.4821344875299</v>
+        <v>3501.350626910591</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2067.381871868337</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>1740.416253688457</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1424.147453842237</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1080.356100004524</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>711.3670939754471</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G38" t="n">
-        <v>338.2915425809746</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>82.7048409502727</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>82.7048409502727</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>271.5839719092981</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>605.4033455991445</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1056.437558847553</v>
+        <v>1237.706702364129</v>
       </c>
       <c r="M38" t="n">
-        <v>1589.969463519477</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N38" t="n">
-        <v>2569.721735746124</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O38" t="n">
-        <v>3114.583531754205</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P38" t="n">
-        <v>3827.93861920115</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
-        <v>4076.224980956832</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
-        <v>4135.242047513635</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4066.948277801261</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>3902.967428946014</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>3691.433850980382</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3402.367862397342</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3091.596105887759</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
-        <v>2760.127246387209</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2411.984813171928</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>957.736578999197</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>783.28354971807</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>634.3491400568188</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>475.1116850513633</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>328.5771270782483</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>192.2140269108664</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H39" t="n">
-        <v>101.7121325487339</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>82.7048409502727</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>176.38211044089</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K39" t="n">
-        <v>414.646309421237</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L39" t="n">
-        <v>781.3444697339023</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.620794956218</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1702.143838510673</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
-        <v>2113.105117928727</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2423.60470940483</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2581.24626705143</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2581.101913643945</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S39" t="n">
-        <v>2451.664027137425</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>2259.02102681528</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2030.953179949696</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
-        <v>1795.801071717953</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W39" t="n">
-        <v>1541.563714989752</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1333.712214784219</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1125.951916019265</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>683.8305684178208</v>
+        <v>452.5901955154776</v>
       </c>
       <c r="C40" t="n">
-        <v>556.8912842504449</v>
+        <v>283.6540125875707</v>
       </c>
       <c r="D40" t="n">
-        <v>448.7715435986401</v>
+        <v>283.6540125875707</v>
       </c>
       <c r="E40" t="n">
-        <v>342.855348776778</v>
+        <v>283.6540125875707</v>
       </c>
       <c r="F40" t="n">
-        <v>237.9623000393986</v>
+        <v>283.6540125875707</v>
       </c>
       <c r="G40" t="n">
-        <v>112.2563621746485</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H40" t="n">
-        <v>112.2563621746485</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>82.7048409502727</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>168.9886338724046</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>414.1369772964773</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L40" t="n">
-        <v>771.8579362201698</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M40" t="n">
-        <v>1157.176142294915</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N40" t="n">
-        <v>1539.745679475976</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>1880.236438871586</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P40" t="n">
-        <v>2154.005099780441</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>2272.776556408152</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R40" t="n">
-        <v>2224.942997926211</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S40" t="n">
-        <v>2075.254012513569</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T40" t="n">
-        <v>1895.484295843626</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U40" t="n">
-        <v>1648.378327729801</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V40" t="n">
-        <v>1435.690738284445</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W40" t="n">
-        <v>1188.270467008015</v>
+        <v>901.3723255570251</v>
       </c>
       <c r="X40" t="n">
-        <v>1002.277814870529</v>
+        <v>673.3827746590077</v>
       </c>
       <c r="Y40" t="n">
-        <v>823.4821344875295</v>
+        <v>452.5901955154776</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2067.381871868337</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>1740.416253688457</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1424.147453842237</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1080.356100004524</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>711.3670939754473</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>338.2915425809748</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
-        <v>82.7048409502727</v>
+        <v>137.557933208926</v>
       </c>
       <c r="I41" t="n">
-        <v>82.7048409502727</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>438.9896209296511</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K41" t="n">
-        <v>772.8089946194975</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L41" t="n">
-        <v>1223.843207867906</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>1757.37511253983</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N41" t="n">
-        <v>2304.153929598612</v>
+        <v>3070.887536710052</v>
       </c>
       <c r="O41" t="n">
-        <v>2904.391691000899</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P41" t="n">
-        <v>3617.746778447844</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q41" t="n">
-        <v>4076.224980956832</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
-        <v>4135.242047513635</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4066.948277801261</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>3902.967428946014</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>3691.433850980381</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
-        <v>3402.367862397341</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3091.596105887758</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
-        <v>2760.127246387209</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2411.984813171928</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2511.732359461403</v>
+        <v>3154.542034367488</v>
       </c>
       <c r="C42" t="n">
-        <v>2337.279330180276</v>
+        <v>2980.089005086361</v>
       </c>
       <c r="D42" t="n">
-        <v>2188.344920519025</v>
+        <v>2831.15459542511</v>
       </c>
       <c r="E42" t="n">
-        <v>2029.107465513569</v>
+        <v>2671.917140419654</v>
       </c>
       <c r="F42" t="n">
-        <v>1882.572907540454</v>
+        <v>2525.382582446539</v>
       </c>
       <c r="G42" t="n">
-        <v>1746.209807373072</v>
+        <v>2389.019482279157</v>
       </c>
       <c r="H42" t="n">
-        <v>1655.70791301094</v>
+        <v>2298.517587917024</v>
       </c>
       <c r="I42" t="n">
-        <v>1636.700621412478</v>
+        <v>2279.510296318562</v>
       </c>
       <c r="J42" t="n">
-        <v>1730.377890903095</v>
+        <v>2373.187565809179</v>
       </c>
       <c r="K42" t="n">
-        <v>1968.642089883442</v>
+        <v>2611.451764789526</v>
       </c>
       <c r="L42" t="n">
-        <v>2335.340250196107</v>
+        <v>2978.149925102191</v>
       </c>
       <c r="M42" t="n">
-        <v>2782.616575418423</v>
+        <v>3425.426250324507</v>
       </c>
       <c r="N42" t="n">
-        <v>3256.139618972878</v>
+        <v>3898.949293878962</v>
       </c>
       <c r="O42" t="n">
-        <v>3667.100898390932</v>
+        <v>4309.910573297018</v>
       </c>
       <c r="P42" t="n">
-        <v>3977.600489867035</v>
+        <v>4620.410164773121</v>
       </c>
       <c r="Q42" t="n">
-        <v>4135.242047513635</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R42" t="n">
-        <v>4135.09769410615</v>
+        <v>4777.907369012236</v>
       </c>
       <c r="S42" t="n">
-        <v>4005.65980759963</v>
+        <v>4648.469482505716</v>
       </c>
       <c r="T42" t="n">
-        <v>3813.016807277486</v>
+        <v>4455.826482183571</v>
       </c>
       <c r="U42" t="n">
-        <v>3584.948960411902</v>
+        <v>4227.758635317987</v>
       </c>
       <c r="V42" t="n">
-        <v>3349.796852180159</v>
+        <v>3992.606527086244</v>
       </c>
       <c r="W42" t="n">
-        <v>3095.559495451957</v>
+        <v>3738.369170358043</v>
       </c>
       <c r="X42" t="n">
-        <v>2887.707995246425</v>
+        <v>3530.51767015251</v>
       </c>
       <c r="Y42" t="n">
-        <v>2679.947696481471</v>
+        <v>3322.757371387556</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>813.82811363618</v>
+        <v>3513.689012062614</v>
       </c>
       <c r="C43" t="n">
-        <v>686.888829468804</v>
+        <v>3344.752829134708</v>
       </c>
       <c r="D43" t="n">
-        <v>578.7690888169993</v>
+        <v>3344.752829134708</v>
       </c>
       <c r="E43" t="n">
-        <v>472.8528939951372</v>
+        <v>3196.839735552314</v>
       </c>
       <c r="F43" t="n">
-        <v>367.9598452577578</v>
+        <v>3160.812154727209</v>
       </c>
       <c r="G43" t="n">
-        <v>242.2539073930077</v>
+        <v>3160.812154727209</v>
       </c>
       <c r="H43" t="n">
-        <v>138.0336193713964</v>
+        <v>3014.594967945067</v>
       </c>
       <c r="I43" t="n">
-        <v>82.7048409502727</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="J43" t="n">
-        <v>168.9886338724046</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K43" t="n">
-        <v>414.1369772964773</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L43" t="n">
-        <v>771.8579362201698</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M43" t="n">
-        <v>1157.176142294915</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N43" t="n">
-        <v>1539.745679475976</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O43" t="n">
-        <v>1880.236438871586</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P43" t="n">
-        <v>2154.005099780441</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q43" t="n">
-        <v>2272.776556408152</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R43" t="n">
-        <v>2224.942997926211</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="S43" t="n">
-        <v>2075.254012513569</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="T43" t="n">
-        <v>1895.484295843626</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="U43" t="n">
-        <v>1648.378327729801</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="V43" t="n">
-        <v>1435.690738284445</v>
+        <v>4433.536776971362</v>
       </c>
       <c r="W43" t="n">
-        <v>1188.270467008015</v>
+        <v>4144.119606934401</v>
       </c>
       <c r="X43" t="n">
-        <v>1002.277814870529</v>
+        <v>3916.130056036384</v>
       </c>
       <c r="Y43" t="n">
-        <v>953.4796797058887</v>
+        <v>3695.337476892854</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2067.381871868338</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>1740.416253688457</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1424.147453842238</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
-        <v>1080.356100004524</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>711.3670939754479</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G44" t="n">
-        <v>338.2915425809749</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
-        <v>82.7048409502727</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>82.7048409502727</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>438.9896209296511</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1021.854667535403</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L44" t="n">
-        <v>1472.888880783811</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M44" t="n">
-        <v>2006.420785455736</v>
+        <v>2337.214217867998</v>
       </c>
       <c r="N44" t="n">
-        <v>2553.199602514518</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O44" t="n">
-        <v>3433.164252843972</v>
+        <v>4010.914672075806</v>
       </c>
       <c r="P44" t="n">
-        <v>3827.93861920115</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q44" t="n">
-        <v>4076.224980956832</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
-        <v>4135.242047513635</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4066.948277801261</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>3902.967428946014</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>3691.433850980382</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3402.367862397342</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
-        <v>3091.596105887759</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>2760.12724638721</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2411.984813171929</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>957.736578999197</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>783.28354971807</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>634.3491400568188</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>475.1116850513633</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>328.5771270782483</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>192.2140269108664</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H45" t="n">
-        <v>101.7121325487339</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
-        <v>82.7048409502727</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>176.38211044089</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K45" t="n">
-        <v>414.646309421237</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L45" t="n">
-        <v>781.3444697339023</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.620794956218</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1702.143838510673</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O45" t="n">
-        <v>2113.105117928727</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P45" t="n">
-        <v>2423.60470940483</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
-        <v>2581.24626705143</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R45" t="n">
-        <v>2581.101913643945</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>2451.664027137425</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2259.02102681528</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2030.953179949696</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
-        <v>1795.801071717953</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1541.563714989752</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1333.712214784219</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1125.951916019265</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>683.8305684178204</v>
+        <v>730.2297869963112</v>
       </c>
       <c r="C46" t="n">
-        <v>556.8912842504444</v>
+        <v>561.2936040684043</v>
       </c>
       <c r="D46" t="n">
-        <v>448.7715435986397</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="E46" t="n">
-        <v>342.8553487767775</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F46" t="n">
-        <v>242.2539073930077</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G46" t="n">
-        <v>242.2539073930077</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>138.0336193713964</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>82.7048409502727</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>168.9886338724046</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>414.1369772964773</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L46" t="n">
-        <v>771.8579362201698</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M46" t="n">
-        <v>1157.176142294915</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N46" t="n">
-        <v>1539.745679475976</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>1880.236438871586</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P46" t="n">
-        <v>2154.005099780441</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>2272.776556408152</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R46" t="n">
-        <v>2224.942997926211</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S46" t="n">
-        <v>2075.254012513569</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T46" t="n">
-        <v>1895.484295843626</v>
+        <v>1676.458186050324</v>
       </c>
       <c r="U46" t="n">
-        <v>1648.378327729801</v>
+        <v>1387.355319175968</v>
       </c>
       <c r="V46" t="n">
-        <v>1435.690738284444</v>
+        <v>1132.670830970081</v>
       </c>
       <c r="W46" t="n">
-        <v>1188.270467008015</v>
+        <v>1132.670830970081</v>
       </c>
       <c r="X46" t="n">
-        <v>1002.277814870528</v>
+        <v>1132.670830970081</v>
       </c>
       <c r="Y46" t="n">
-        <v>823.4821344875292</v>
+        <v>911.8782518265509</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>69.44682818639555</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8070,13 +8072,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>346.7001213687535</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.19177662857896</v>
+        <v>55.86574532263772</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,13 +8303,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093292</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360587</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8532,13 +8534,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8687,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8699,16 +8701,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>13.98823883547038</v>
       </c>
       <c r="O11" t="n">
-        <v>292.5685715191239</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8933,13 +8935,13 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>185.3870697685884</v>
+        <v>107.504040814757</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -8948,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9167,16 +9169,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>83.16722118949457</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>46.30618790178949</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9401,25 +9403,25 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>285.6623071682329</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>102.8529310510287</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9635,25 +9637,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>248.8012738805281</v>
       </c>
       <c r="P23" t="n">
-        <v>1.017475755657983</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9872,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9887,13 +9889,13 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476853</v>
+        <v>308.4529749292145</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10109,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>232.1124963760985</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>192.185308577136</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10352,22 +10354,22 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>20.70318561719154</v>
       </c>
       <c r="Q32" t="n">
-        <v>128.7323010770072</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10422,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10586,25 +10588,25 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>39.96574522531057</v>
+        <v>36.48628322062325</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10659,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.907807245515869e-12</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10826,19 +10828,19 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>170.1140909277313</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>42.31244962499363</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11060,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11069,13 +11071,13 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>98.24776820499983</v>
+        <v>294.8707872801663</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11294,22 +11296,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>251.5612857736415</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>192.9047586887116</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11397,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>59.67489464028267</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.2164233546965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,10 +23658,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>105.5328013589131</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,25 +23703,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>182.9757066155486</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>142.963874846443</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -23950,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>121.1381017707465</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -24127,25 +24129,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>106.6034598437598</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>40.88401036253066</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24373,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>79.98438917353185</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,22 +24417,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>166.3501421206761</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24604,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>23.33836774574365</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>112.611430724137</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24844,10 +24846,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>104.7711977403272</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -24889,22 +24891,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>110.9607540090686</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>73.9220791292631</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>54.77549063691244</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>259.4681369327819</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>125.6698913257022</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>3.027678440472776</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,10 +25368,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>251.3451880069559</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>124.5687748155645</v>
       </c>
       <c r="H40" t="n">
-        <v>103.1780851413951</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>25.5194846247804</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25789,16 +25791,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>109.7537430060774</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25834,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>128.6975697661756</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26032,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>4.24869128007353</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>124.4488784861026</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>132.2315473537763</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>726987.6633558262</v>
+        <v>726921.4511719454</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>663099.7844423888</v>
+        <v>663099.7844423887</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>663099.7844423888</v>
+        <v>663099.7844423887</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>663099.7844423888</v>
+        <v>663099.7844423889</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>663099.7844423888</v>
+        <v>663099.7844423887</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>682131.3479751318</v>
+        <v>663099.7844423888</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>672001.1869407735</v>
+        <v>663099.7844423888</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>672001.1869407735</v>
+        <v>663099.7844423888</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>672001.1869407735</v>
+        <v>663099.7844423888</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>672001.1869407735</v>
+        <v>663099.7844423888</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710694</v>
+        <v>779989.6813710695</v>
       </c>
       <c r="C2" t="n">
         <v>779989.6813710689</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="E2" t="n">
         <v>754455.3950852675</v>
       </c>
       <c r="F2" t="n">
-        <v>754455.3950852677</v>
+        <v>754455.3950852674</v>
       </c>
       <c r="G2" t="n">
+        <v>754455.3950852675</v>
+      </c>
+      <c r="H2" t="n">
+        <v>754455.3950852674</v>
+      </c>
+      <c r="I2" t="n">
+        <v>754455.395085268</v>
+      </c>
+      <c r="J2" t="n">
+        <v>754455.3950852678</v>
+      </c>
+      <c r="K2" t="n">
         <v>754455.3950852676</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
+        <v>754455.3950852678</v>
+      </c>
+      <c r="M2" t="n">
+        <v>754455.3950852678</v>
+      </c>
+      <c r="N2" t="n">
+        <v>754455.3950852675</v>
+      </c>
+      <c r="O2" t="n">
         <v>754455.3950852676</v>
       </c>
-      <c r="I2" t="n">
+      <c r="P2" t="n">
         <v>754455.3950852676</v>
-      </c>
-      <c r="J2" t="n">
-        <v>754455.3950852677</v>
-      </c>
-      <c r="K2" t="n">
-        <v>754455.3950852677</v>
-      </c>
-      <c r="L2" t="n">
-        <v>777055.3767804006</v>
-      </c>
-      <c r="M2" t="n">
-        <v>777055.3767803999</v>
-      </c>
-      <c r="N2" t="n">
-        <v>777055.3767803998</v>
-      </c>
-      <c r="O2" t="n">
-        <v>777055.3767804003</v>
-      </c>
-      <c r="P2" t="n">
-        <v>777055.3767804001</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>501640.1139354334</v>
+        <v>493391.6844106485</v>
       </c>
       <c r="C3" t="n">
-        <v>83952.76640529447</v>
+        <v>91792.63957446857</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>156579.6172341309</v>
+        <v>154726.5356832161</v>
       </c>
       <c r="K3" t="n">
-        <v>19519.30160387955</v>
+        <v>21342.09858220063</v>
       </c>
       <c r="L3" t="n">
-        <v>33261.54381834053</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>89594.62928262076</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>233502.9103666231</v>
+        <v>235704.9591760456</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
@@ -26424,40 +26426,40 @@
         <v>209922.4154630333</v>
       </c>
       <c r="E4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289571</v>
       </c>
       <c r="F4" t="n">
-        <v>28561.83935289574</v>
+        <v>28561.83935289572</v>
       </c>
       <c r="G4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289579</v>
       </c>
       <c r="H4" t="n">
-        <v>28561.83935289578</v>
+        <v>28561.83935289573</v>
       </c>
       <c r="I4" t="n">
-        <v>28561.83935289578</v>
+        <v>28561.83935289577</v>
       </c>
       <c r="J4" t="n">
-        <v>28561.83935289577</v>
+        <v>28561.83935289579</v>
       </c>
       <c r="K4" t="n">
         <v>28561.83935289577</v>
       </c>
       <c r="L4" t="n">
-        <v>42242.72125640594</v>
+        <v>28561.83935289578</v>
       </c>
       <c r="M4" t="n">
-        <v>60371.09069970001</v>
+        <v>28561.83935289579</v>
       </c>
       <c r="N4" t="n">
-        <v>60371.09069969996</v>
+        <v>28561.83935289577</v>
       </c>
       <c r="O4" t="n">
-        <v>60371.09069970003</v>
+        <v>28561.83935289577</v>
       </c>
       <c r="P4" t="n">
-        <v>60371.09069970001</v>
+        <v>28561.83935289578</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76824.629125843</v>
+        <v>76261.10613140126</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26476,7 +26478,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371364</v>
@@ -26491,25 +26493,25 @@
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
-        <v>99878.84916279373</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>90108.14210422125</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
-        <v>90108.14210422123</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
-        <v>90108.14210422123</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
-        <v>90108.14210422123</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-31977.97205683019</v>
+        <v>-25368.06834702581</v>
       </c>
       <c r="C6" t="n">
-        <v>403255.4214393317</v>
+        <v>395415.5482701575</v>
       </c>
       <c r="D6" t="n">
-        <v>487208.187844626</v>
+        <v>487208.1878446263</v>
       </c>
       <c r="E6" t="n">
-        <v>-97867.37651474851</v>
+        <v>-97867.37651474867</v>
       </c>
       <c r="F6" t="n">
-        <v>629510.0374786584</v>
+        <v>629510.037478658</v>
       </c>
       <c r="G6" t="n">
+        <v>629510.0374786581</v>
+      </c>
+      <c r="H6" t="n">
+        <v>629510.037478658</v>
+      </c>
+      <c r="I6" t="n">
+        <v>629510.0374786586</v>
+      </c>
+      <c r="J6" t="n">
+        <v>474783.5017954424</v>
+      </c>
+      <c r="K6" t="n">
+        <v>608167.9388964577</v>
+      </c>
+      <c r="L6" t="n">
+        <v>629510.0374786585</v>
+      </c>
+      <c r="M6" t="n">
+        <v>499867.7226397137</v>
+      </c>
+      <c r="N6" t="n">
+        <v>629510.0374786581</v>
+      </c>
+      <c r="O6" t="n">
         <v>629510.0374786583</v>
       </c>
-      <c r="H6" t="n">
+      <c r="P6" t="n">
         <v>629510.0374786583</v>
-      </c>
-      <c r="I6" t="n">
-        <v>629510.0374786583</v>
-      </c>
-      <c r="J6" t="n">
-        <v>472930.4202445275</v>
-      </c>
-      <c r="K6" t="n">
-        <v>609990.7358747788</v>
-      </c>
-      <c r="L6" t="n">
-        <v>601672.2625428605</v>
-      </c>
-      <c r="M6" t="n">
-        <v>536981.5146938579</v>
-      </c>
-      <c r="N6" t="n">
-        <v>626576.1439764786</v>
-      </c>
-      <c r="O6" t="n">
-        <v>626576.1439764791</v>
-      </c>
-      <c r="P6" t="n">
-        <v>626576.1439764788</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26715,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>41.57692977292566</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>41.57692977292566</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>41.57692977292563</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>312.4566977215816</v>
+        <v>306.3599178435501</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>598.4452815051402</v>
+        <v>591.3628276712481</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26820,16 +26822,16 @@
         <v>1194.51293060493</v>
       </c>
       <c r="M4" t="n">
-        <v>1033.810511878409</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="N4" t="n">
-        <v>1033.810511878409</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="O4" t="n">
-        <v>1033.810511878409</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="P4" t="n">
-        <v>1033.810511878409</v>
+        <v>1194.51293060493</v>
       </c>
     </row>
   </sheetData>
@@ -26935,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>41.57692977292566</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>312.4566977215816</v>
+        <v>306.3599178435501</v>
       </c>
       <c r="C3" t="n">
-        <v>65.286966495505</v>
+        <v>71.3837463735365</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>598.4452815051402</v>
+        <v>591.3628276712481</v>
       </c>
       <c r="C4" t="n">
-        <v>75.84199124941543</v>
+        <v>82.9244450833075</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>598.4452815051402</v>
+        <v>591.3628276712483</v>
       </c>
       <c r="K4" t="n">
-        <v>75.84199124941543</v>
+        <v>82.92444508330728</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>359.5232391238534</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>598.4452815051402</v>
+        <v>591.3628276712481</v>
       </c>
       <c r="K4" t="n">
-        <v>75.84199124941543</v>
+        <v>82.9244450833075</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27391,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>208.2217583484875</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>162.9947207958794</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>70.96516602857359</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27439,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>278.6417791163553</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27470,7 +27472,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>60.86677349018385</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27506,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>159.4432253296168</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27518,7 +27520,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>182.3069027665568</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27543,22 +27545,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>96.45322106290365</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.4275328543707</v>
+        <v>167.4385270475933</v>
       </c>
       <c r="H4" t="n">
-        <v>157.2176208620018</v>
+        <v>157.3153692344725</v>
       </c>
       <c r="I4" t="n">
-        <v>138.5061018770453</v>
+        <v>138.8367272514146</v>
       </c>
       <c r="J4" t="n">
-        <v>53.52351227764426</v>
+        <v>54.30080173848771</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,25 +27581,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.98108189573557</v>
+        <v>39.90169565731833</v>
       </c>
       <c r="R4" t="n">
-        <v>151.9587876569901</v>
+        <v>152.4531265631662</v>
       </c>
       <c r="S4" t="n">
-        <v>214.1972621430006</v>
+        <v>214.3888609467086</v>
       </c>
       <c r="T4" t="n">
-        <v>225.5381361835414</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>1.938312216178019</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,13 +27627,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>78.88608460272269</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27664,22 +27666,22 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>49.89305129892774</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27786,16 +27788,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,28 +27818,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>72.6705324754106</v>
       </c>
       <c r="X7" t="n">
-        <v>0.9046499620934583</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>320.819774231397</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>280.4917906281833</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28013,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>57.35793452942693</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>84.32306505563267</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-6.063298011819522e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-6.063298011819522e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-6.063298011819522e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-6.063298011819522e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-6.063298011819522e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-6.063298011819522e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-6.063298011819522e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>-6.063298011819522e-14</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-6.063298011819522e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-6.063298011819522e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-6.063298011819522e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-6.063298011819522e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-6.063298011819522e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-6.063298011819522e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-6.063298011819522e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28339,13 +28341,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-5.839338161225241e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-6.063298011819522e-14</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-6.063298011819522e-14</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-6.063298011819522e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-6.063298011819522e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-6.063298011819522e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-6.063298011819522e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-6.063298011819522e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-6.063298011819522e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-6.063298011819522e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28579,10 +28581,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-3.16432651856645e-14</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-6.063298011819522e-14</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,19 +28614,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-6.063298011819522e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-6.063298011819522e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-6.063298011819522e-14</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>-6.063298011819522e-14</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>41.57692977292566</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>41.57692977292566</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>41.57692977292566</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>41.57692977292566</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>41.57692977292566</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>41.57692977292566</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>41.57692977292566</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>41.57692977292566</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>41.57692977292566</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>41.57692977292566</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>41.57692977292566</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>41.57692977292566</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>41.57692977292566</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>41.57692977292566</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>41.57692977292566</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>41.57692977292566</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.57692977292566</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>41.57692977292566</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>41.57692977292566</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>41.57692977292566</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>41.57692977292566</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>41.57692977292566</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>41.57692977292566</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>41.57692977292566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>41.57692977292566</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>41.57692977292566</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>41.57692977292566</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>41.57692977292566</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>41.57692977292566</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>41.57692977292566</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>41.57692977292566</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>41.57692977292566</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>41.57692977292566</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>41.57692977292566</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>41.57692977292566</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>41.57692977292566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>41.57692977292566</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>41.57692977292566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>41.57692977292566</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>41.57692977292566</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>41.57692977292566</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>41.57692977292566</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>41.57692977292566</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>41.57692977292566</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>41.57692977292566</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>41.57692977292566</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>41.57692977292566</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>41.57692977292566</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>41.57692977292566</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>41.57692977292566</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>41.57692977292566</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>41.57692977292566</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>41.57692977292566</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>41.57692977292566</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.57692977292566</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>41.57692977292566</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>41.57692977292566</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>41.57692977292566</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>41.57692977292566</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>41.57692977292566</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>41.57692977292566</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>41.57692977292566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>41.57692977292453</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>41.57692977292565</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>41.57692977292563</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>41.57692977292563</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>41.57692977292563</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>41.57692977292563</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>41.57692977292563</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>41.57692977292563</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>41.57692977292563</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292563</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>41.57692977292563</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>41.57692977292563</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>41.57692977292563</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>41.57692977292563</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>41.57692977292563</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>41.57692977292563</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>41.57692977292563</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>41.57692977292563</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>41.57692977292563</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>41.57692977292563</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>41.57692977292563</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>41.57692977292563</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>41.57692977292563</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>41.57692977292563</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>41.57692977292563</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>41.57692977292563</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>41.57692977292563</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>41.57692977292563</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>41.57692977292563</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>41.57692977292563</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>41.57692977292563</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>41.57692977292563</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>41.57692977292563</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.57692977292563</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>41.57692977292563</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>41.57692977292563</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>41.57692977292563</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>41.57692977292563</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>41.57692977292563</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>41.57692977292563</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>41.57692977292563</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.256107327523945</v>
+        <v>1.231597659672562</v>
       </c>
       <c r="H2" t="n">
-        <v>12.86410916800461</v>
+        <v>12.61309953212163</v>
       </c>
       <c r="I2" t="n">
-        <v>48.42607774436694</v>
+        <v>47.4811687745265</v>
       </c>
       <c r="J2" t="n">
-        <v>106.6105392894355</v>
+        <v>104.5303118676342</v>
       </c>
       <c r="K2" t="n">
-        <v>159.7815624635242</v>
+        <v>156.6638408015738</v>
       </c>
       <c r="L2" t="n">
-        <v>198.2231570882351</v>
+        <v>194.355347678778</v>
       </c>
       <c r="M2" t="n">
-        <v>220.5614557740891</v>
+        <v>216.25777255898</v>
       </c>
       <c r="N2" t="n">
-        <v>224.1303707184165</v>
+        <v>219.7570494095246</v>
       </c>
       <c r="O2" t="n">
-        <v>211.6399534803503</v>
+        <v>207.5103501811556</v>
       </c>
       <c r="P2" t="n">
-        <v>180.6298038321029</v>
+        <v>177.1052829579892</v>
       </c>
       <c r="Q2" t="n">
-        <v>135.6454601651515</v>
+        <v>132.9986917709655</v>
       </c>
       <c r="R2" t="n">
-        <v>78.90395191257609</v>
+        <v>77.36434648940666</v>
       </c>
       <c r="S2" t="n">
-        <v>28.62354572595193</v>
+        <v>28.06503166978854</v>
       </c>
       <c r="T2" t="n">
-        <v>5.498609826236073</v>
+        <v>5.391318755216644</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1004885862019156</v>
+        <v>0.09852781277380496</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6720766705709491</v>
+        <v>0.6589628421540511</v>
       </c>
       <c r="H3" t="n">
-        <v>6.490845739461536</v>
+        <v>6.364193765014126</v>
       </c>
       <c r="I3" t="n">
-        <v>23.13948185956996</v>
+        <v>22.68797504784781</v>
       </c>
       <c r="J3" t="n">
-        <v>63.49650684547726</v>
+        <v>62.25753764403692</v>
       </c>
       <c r="K3" t="n">
-        <v>108.5256437737308</v>
+        <v>106.4080480683583</v>
       </c>
       <c r="L3" t="n">
-        <v>145.9261209500651</v>
+        <v>143.0787521966505</v>
       </c>
       <c r="M3" t="n">
-        <v>170.2889002582619</v>
+        <v>166.9661552247348</v>
       </c>
       <c r="N3" t="n">
-        <v>174.795940737661</v>
+        <v>171.3852525302328</v>
       </c>
       <c r="O3" t="n">
-        <v>159.9041366160626</v>
+        <v>156.784023238293</v>
       </c>
       <c r="P3" t="n">
-        <v>128.3371670320964</v>
+        <v>125.8330009723819</v>
       </c>
       <c r="Q3" t="n">
-        <v>85.78999745744255</v>
+        <v>84.1160287633838</v>
       </c>
       <c r="R3" t="n">
-        <v>41.72770766930859</v>
+        <v>40.91349997163488</v>
       </c>
       <c r="S3" t="n">
-        <v>12.48352938538582</v>
+        <v>12.23994577422107</v>
       </c>
       <c r="T3" t="n">
-        <v>2.708940615152202</v>
+        <v>2.656082683945495</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0442155704322993</v>
+        <v>0.04335281856276654</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5634465040880978</v>
+        <v>0.5524523108654181</v>
       </c>
       <c r="H4" t="n">
-        <v>5.009551645437819</v>
+        <v>4.911803272967084</v>
       </c>
       <c r="I4" t="n">
-        <v>16.94437305021298</v>
+        <v>16.61374767584367</v>
       </c>
       <c r="J4" t="n">
-        <v>39.83566783902852</v>
+        <v>39.05837837818506</v>
       </c>
       <c r="K4" t="n">
-        <v>65.46223929314445</v>
+        <v>64.18491393509129</v>
       </c>
       <c r="L4" t="n">
-        <v>83.7691284350614</v>
+        <v>82.13459174448226</v>
       </c>
       <c r="M4" t="n">
-        <v>88.32280063628245</v>
+        <v>86.59941087502185</v>
       </c>
       <c r="N4" t="n">
-        <v>86.22268184831781</v>
+        <v>84.54027044361445</v>
       </c>
       <c r="O4" t="n">
-        <v>79.64060223237954</v>
+        <v>78.08662299395931</v>
       </c>
       <c r="P4" t="n">
-        <v>68.14629354898229</v>
+        <v>66.81659585230473</v>
       </c>
       <c r="Q4" t="n">
-        <v>47.18096135595881</v>
+        <v>46.26034759437606</v>
       </c>
       <c r="R4" t="n">
-        <v>25.33460372017938</v>
+        <v>24.84026481400325</v>
       </c>
       <c r="S4" t="n">
-        <v>9.819335893971665</v>
+        <v>9.627737090263693</v>
       </c>
       <c r="T4" t="n">
-        <v>2.407453244740054</v>
+        <v>2.360478055515877</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03073344567753265</v>
+        <v>0.03013376241084102</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32087,7 +32089,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O15" t="n">
         <v>557.7086478970249</v>
@@ -32315,7 +32317,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353173</v>
       </c>
       <c r="L18" t="n">
         <v>508.9565619138795</v>
@@ -32564,7 +32566,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P21" t="n">
         <v>447.6103584002926</v>
@@ -32804,7 +32806,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987486</v>
@@ -33023,13 +33025,13 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138801</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
         <v>593.9283018233474</v>
@@ -33263,7 +33265,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138795</v>
@@ -33646,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33971,7 +33973,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -34223,7 +34225,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970268</v>
       </c>
       <c r="P42" t="n">
         <v>447.6103584002926</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.66124993482302</v>
+        <v>92.58102251302171</v>
       </c>
       <c r="K2" t="n">
-        <v>263.8371239897083</v>
+        <v>260.719402327758</v>
       </c>
       <c r="L2" t="n">
-        <v>380.1179566686983</v>
+        <v>376.2501472592412</v>
       </c>
       <c r="M2" t="n">
-        <v>439.7287560396488</v>
+        <v>435.4250728245397</v>
       </c>
       <c r="N2" t="n">
-        <v>432.0642315338098</v>
+        <v>427.6909102249178</v>
       </c>
       <c r="O2" t="n">
-        <v>362.3419233214089</v>
+        <v>358.2123200222142</v>
       </c>
       <c r="P2" t="n">
-        <v>271.1955162483159</v>
+        <v>267.6709953742023</v>
       </c>
       <c r="Q2" t="n">
-        <v>125.6547609506067</v>
+        <v>123.0079925564207</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.74991551921941</v>
+        <v>4.866739163765772</v>
       </c>
       <c r="K3" t="n">
-        <v>235.1494418119505</v>
+        <v>233.0318461065779</v>
       </c>
       <c r="L3" t="n">
-        <v>378.2120864736501</v>
+        <v>375.3647177202355</v>
       </c>
       <c r="M3" t="n">
-        <v>493.8599300862435</v>
+        <v>490.5371850527164</v>
       </c>
       <c r="N3" t="n">
-        <v>522.7966029978812</v>
+        <v>519.3859147904531</v>
       </c>
       <c r="O3" t="n">
-        <v>364.0080135403717</v>
+        <v>408.0500980705781</v>
       </c>
       <c r="P3" t="n">
-        <v>312.8255282577034</v>
+        <v>310.3213621979888</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34857,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>43.1927474672616</v>
+        <v>41.91542210920844</v>
       </c>
       <c r="L4" t="n">
-        <v>111.3591536953775</v>
+        <v>109.7246170047984</v>
       </c>
       <c r="M4" t="n">
-        <v>127.906677598123</v>
+        <v>126.1832878368624</v>
       </c>
       <c r="N4" t="n">
-        <v>130.3548542275464</v>
+        <v>128.672442822843</v>
       </c>
       <c r="O4" t="n">
-        <v>104.2257301464192</v>
+        <v>102.671750907999</v>
       </c>
       <c r="P4" t="n">
-        <v>65.42485281387577</v>
+        <v>64.09515511719822</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35021,13 +35023,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839189</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35185,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>566.2900742483819</v>
       </c>
       <c r="O11" t="n">
-        <v>800.6215724073429</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
         <v>125.3296184152072</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35653,13 +35655,13 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>693.4400706568074</v>
+        <v>615.557041702976</v>
       </c>
       <c r="P14" t="n">
         <v>720.5606943908542</v>
@@ -35668,7 +35670,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35735,7 +35737,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O15" t="n">
         <v>415.1124034525805</v>
@@ -35887,16 +35889,16 @@
         <v>661.3366991265651</v>
       </c>
       <c r="L17" t="n">
-        <v>538.7573355818265</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>585.227303732016</v>
       </c>
       <c r="N17" t="n">
         <v>989.6487598248955</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193716</v>
@@ -35963,7 +35965,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609583</v>
       </c>
       <c r="L18" t="n">
         <v>370.4021821340053</v>
@@ -36121,25 +36123,25 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265651</v>
+        <v>622.8535937236333</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N20" t="n">
-        <v>655.1547664639399</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
         <v>888.8531821509644</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
         <v>59.61319854222472</v>
@@ -36212,7 +36214,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
@@ -36355,25 +36357,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M23" t="n">
         <v>988.434649323059</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509644</v>
+        <v>756.8542747687471</v>
       </c>
       <c r="P23" t="n">
-        <v>399.7794619750296</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q23" t="n">
         <v>250.7943048037194</v>
@@ -36452,7 +36454,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127271</v>
@@ -36592,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
         <v>661.3366991265651</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302265</v>
@@ -36607,13 +36609,13 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>852.7555845359043</v>
+        <v>816.5059758174335</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36671,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597766</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
         <v>451.7942679013291</v>
@@ -36829,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>771.0336122063251</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O29" t="n">
         <v>888.8531821509644</v>
       </c>
       <c r="P29" t="n">
-        <v>590.9472947965077</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36911,7 +36913,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340053</v>
@@ -37072,22 +37074,22 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
         <v>888.8531821509644</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908542</v>
+        <v>419.4651718365632</v>
       </c>
       <c r="Q32" t="n">
-        <v>379.5266058807267</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
         <v>59.61319854222472</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.15534638599186</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K34" t="n">
-        <v>247.6245893172452</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
-        <v>361.3343019431237</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M34" t="n">
-        <v>389.2103091664094</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N34" t="n">
-        <v>386.4338759404657</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>343.9300599955654</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P34" t="n">
-        <v>276.534000918036</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>119.9711683108193</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>548.0187461135297</v>
+        <v>544.5392841088423</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.15534638599189</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K37" t="n">
-        <v>247.6245893172452</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L37" t="n">
-        <v>361.3343019431238</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M37" t="n">
-        <v>389.2103091664095</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N37" t="n">
-        <v>386.4338759404658</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>343.9300599955654</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
-        <v>276.5340009180361</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>119.9711683108193</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,19 +37548,19 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>625.7042053200632</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N38" t="n">
         <v>989.6487598248955</v>
       </c>
       <c r="O38" t="n">
-        <v>550.3654505132126</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
         <v>250.7943048037194</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.15534638599185</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
-        <v>247.6245893172452</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
-        <v>361.3343019431237</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M40" t="n">
-        <v>389.2103091664094</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N40" t="n">
-        <v>386.4338759404657</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>343.9300599955654</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
-        <v>276.534000918036</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>119.9711683108193</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,7 +37782,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923319</v>
@@ -37789,13 +37791,13 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O41" t="n">
-        <v>606.3007690932188</v>
+        <v>802.9237881683853</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
         <v>463.1092954636241</v>
@@ -37871,7 +37873,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525824</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.15534638599185</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
-        <v>247.6245893172452</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
-        <v>361.3343019431237</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M43" t="n">
-        <v>389.2103091664094</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N43" t="n">
-        <v>386.4338759404657</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>343.9300599955654</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
-        <v>276.534000918036</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>119.9711683108193</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,22 +38016,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>588.7525723290419</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509644</v>
+        <v>700.9577595769306</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193716</v>
@@ -38038,7 +38040,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.15534638599183</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K46" t="n">
-        <v>247.6245893172452</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
-        <v>361.3343019431237</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>389.2103091664094</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>386.4338759404657</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>343.9300599955653</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
-        <v>276.534000918036</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>119.9711683108193</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3706316.025457908</v>
+        <v>3709721.516582358</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6663746.095359935</v>
+        <v>6663746.095359934</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095095</v>
+        <v>806345.8827095098</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>40.88070347185368</v>
+        <v>14.07113985546249</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>162.9947207958795</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>72.50477145174307</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>117.2995129605282</v>
       </c>
       <c r="U2" t="n">
         <v>251.2471250950627</v>
@@ -752,10 +752,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.6845543210566</v>
       </c>
       <c r="H3" t="n">
-        <v>98.31432270724012</v>
+        <v>105.8712504714823</v>
       </c>
       <c r="I3" t="n">
         <v>66.70865780356728</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.2443341810083</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>159.4432253296168</v>
+        <v>74.44607742532671</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>99.55849178710167</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>128.8977875673506</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>321.6715097573816</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>150.7923813103634</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>103.8744449383597</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1062,13 +1062,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>8.715333384834437</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>380.5038395791255</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>270.7773459850746</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>14.1951034842255</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>2.161932497467861</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>68.59751212389969</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>133.2205257453333</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>410.921725653453</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881751</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9951719589016</v>
+        <v>250.9951719589034</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>74.75769145492404</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>234.0075547026433</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>145.6878961026933</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.9951719589016</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>74.75769145492406</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2298,7 +2298,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>235.9955072668612</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>118.3356454348912</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2538,10 +2538,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>60.43691176767048</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2769,7 +2769,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>270.0697021486465</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>127.3165365479897</v>
       </c>
     </row>
     <row r="29">
@@ -2806,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>37.6339454523855</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>205.2823191463233</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>74.75769145492404</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3243,10 +3243,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>188.9347161148182</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292614</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>15.11174121957136</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>235.6634608815716</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,10 +3556,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784681</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3678,10 +3678,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>239.8255818392591</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>10.62671122876406</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>138.2178776215689</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>110.9341044128763</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4039,7 +4039,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>53.05571959704682</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>120.7780517840171</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>664.2297029909166</v>
+        <v>472.5082035845826</v>
       </c>
       <c r="C2" t="n">
-        <v>664.2297029909166</v>
+        <v>472.5082035845826</v>
       </c>
       <c r="D2" t="n">
-        <v>664.2297029909166</v>
+        <v>472.5082035845826</v>
       </c>
       <c r="E2" t="n">
-        <v>664.2297029909166</v>
+        <v>472.5082035845826</v>
       </c>
       <c r="F2" t="n">
-        <v>253.2437982013091</v>
+        <v>61.52229879497507</v>
       </c>
       <c r="G2" t="n">
-        <v>211.9501583307498</v>
+        <v>47.30902621369983</v>
       </c>
       <c r="H2" t="n">
-        <v>211.9501583307498</v>
+        <v>47.30902621369983</v>
       </c>
       <c r="I2" t="n">
-        <v>47.30902621369982</v>
+        <v>47.30902621369983</v>
       </c>
       <c r="J2" t="n">
-        <v>138.9642385015914</v>
+        <v>138.9642385015913</v>
       </c>
       <c r="K2" t="n">
-        <v>397.0764468060717</v>
+        <v>397.0764468060716</v>
       </c>
       <c r="L2" t="n">
-        <v>769.5640925927203</v>
+        <v>769.5640925927202</v>
       </c>
       <c r="M2" t="n">
         <v>1200.634914689014</v>
       </c>
       <c r="N2" t="n">
-        <v>1624.048915811682</v>
+        <v>1624.048915811683</v>
       </c>
       <c r="O2" t="n">
         <v>1978.679112633675</v>
       </c>
       <c r="P2" t="n">
-        <v>2243.673398054134</v>
+        <v>2243.673398054135</v>
       </c>
       <c r="Q2" t="n">
         <v>2365.451310684991</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.451310684991</v>
+        <v>2292.214167804443</v>
       </c>
       <c r="S2" t="n">
-        <v>2365.451310684991</v>
+        <v>2292.214167804443</v>
       </c>
       <c r="T2" t="n">
-        <v>2365.451310684991</v>
+        <v>2173.729811278657</v>
       </c>
       <c r="U2" t="n">
-        <v>2111.666335841493</v>
+        <v>1919.944836435159</v>
       </c>
       <c r="V2" t="n">
-        <v>1780.603448497922</v>
+        <v>1588.881949091588</v>
       </c>
       <c r="W2" t="n">
-        <v>1427.834793227808</v>
+        <v>1236.113293821474</v>
       </c>
       <c r="X2" t="n">
-        <v>1054.369034966728</v>
+        <v>862.6475355603943</v>
       </c>
       <c r="Y2" t="n">
-        <v>664.2297029909166</v>
+        <v>472.5082035845826</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>843.1583574384945</v>
+        <v>988.8568241913216</v>
       </c>
       <c r="C3" t="n">
-        <v>668.7053281573675</v>
+        <v>814.4037949101946</v>
       </c>
       <c r="D3" t="n">
-        <v>519.7709184961162</v>
+        <v>665.4693852489434</v>
       </c>
       <c r="E3" t="n">
-        <v>360.5334634906607</v>
+        <v>506.2319302434878</v>
       </c>
       <c r="F3" t="n">
-        <v>213.9989055175457</v>
+        <v>359.6973722703728</v>
       </c>
       <c r="G3" t="n">
-        <v>213.9989055175457</v>
+        <v>221.6321658854671</v>
       </c>
       <c r="H3" t="n">
         <v>114.6915088435658</v>
       </c>
       <c r="I3" t="n">
-        <v>47.30902621369982</v>
+        <v>47.30902621369983</v>
       </c>
       <c r="J3" t="n">
-        <v>108.204863068301</v>
+        <v>108.2048630683011</v>
       </c>
       <c r="K3" t="n">
-        <v>338.9063907138131</v>
+        <v>338.9063907138132</v>
       </c>
       <c r="L3" t="n">
-        <v>654.4396961743726</v>
+        <v>710.5174612568462</v>
       </c>
       <c r="M3" t="n">
-        <v>1140.071509376562</v>
+        <v>1196.149274459035</v>
       </c>
       <c r="N3" t="n">
-        <v>1654.26356501911</v>
+        <v>1710.341330101584</v>
       </c>
       <c r="O3" t="n">
-        <v>2058.233162108982</v>
+        <v>2114.310927191456</v>
       </c>
       <c r="P3" t="n">
         <v>2365.451310684991</v>
@@ -4433,28 +4433,28 @@
         <v>2365.451310684991</v>
       </c>
       <c r="R3" t="n">
-        <v>2305.608548885993</v>
+        <v>2365.451310684991</v>
       </c>
       <c r="S3" t="n">
-        <v>2144.554785926784</v>
+        <v>2290.253252679611</v>
       </c>
       <c r="T3" t="n">
-        <v>2144.554785926784</v>
+        <v>2290.253252679611</v>
       </c>
       <c r="U3" t="n">
-        <v>1916.374958388993</v>
+        <v>2062.073425141821</v>
       </c>
       <c r="V3" t="n">
-        <v>1681.222850157251</v>
+        <v>1826.921316910078</v>
       </c>
       <c r="W3" t="n">
-        <v>1426.985493429049</v>
+        <v>1572.683960181876</v>
       </c>
       <c r="X3" t="n">
-        <v>1219.133993223516</v>
+        <v>1364.832459976343</v>
       </c>
       <c r="Y3" t="n">
-        <v>1011.373694458563</v>
+        <v>1157.07216121139</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>325.4219052176592</v>
+        <v>514.2749421363355</v>
       </c>
       <c r="C4" t="n">
-        <v>325.4219052176592</v>
+        <v>345.3387592084287</v>
       </c>
       <c r="D4" t="n">
-        <v>195.2221197960929</v>
+        <v>195.222119796093</v>
       </c>
       <c r="E4" t="n">
-        <v>47.30902621369982</v>
+        <v>47.30902621369983</v>
       </c>
       <c r="F4" t="n">
-        <v>47.30902621369982</v>
+        <v>47.30902621369983</v>
       </c>
       <c r="G4" t="n">
-        <v>47.30902621369982</v>
+        <v>47.30902621369983</v>
       </c>
       <c r="H4" t="n">
-        <v>47.30902621369982</v>
+        <v>47.30902621369983</v>
       </c>
       <c r="I4" t="n">
-        <v>47.30902621369982</v>
+        <v>47.30902621369983</v>
       </c>
       <c r="J4" t="n">
-        <v>47.30902621369982</v>
+        <v>47.30902621369983</v>
       </c>
       <c r="K4" t="n">
-        <v>88.80529410181612</v>
+        <v>88.80529410181614</v>
       </c>
       <c r="L4" t="n">
         <v>197.4326649365665</v>
       </c>
       <c r="M4" t="n">
-        <v>322.3541198950602</v>
+        <v>322.3541198950603</v>
       </c>
       <c r="N4" t="n">
-        <v>449.7398382896748</v>
+        <v>449.7398382896749</v>
       </c>
       <c r="O4" t="n">
-        <v>551.3848716885936</v>
+        <v>551.3848716885939</v>
       </c>
       <c r="P4" t="n">
-        <v>614.8390752546198</v>
+        <v>614.8390752546201</v>
       </c>
       <c r="Q4" t="n">
-        <v>614.8390752546198</v>
+        <v>614.8390752546201</v>
       </c>
       <c r="R4" t="n">
-        <v>614.8390752546198</v>
+        <v>614.8390752546201</v>
       </c>
       <c r="S4" t="n">
-        <v>614.8390752546198</v>
+        <v>614.8390752546201</v>
       </c>
       <c r="T4" t="n">
-        <v>614.8390752546198</v>
+        <v>614.8390752546201</v>
       </c>
       <c r="U4" t="n">
-        <v>614.8390752546198</v>
+        <v>614.8390752546201</v>
       </c>
       <c r="V4" t="n">
-        <v>614.8390752546198</v>
+        <v>614.8390752546201</v>
       </c>
       <c r="W4" t="n">
-        <v>325.4219052176592</v>
+        <v>614.8390752546201</v>
       </c>
       <c r="X4" t="n">
-        <v>325.4219052176592</v>
+        <v>614.8390752546201</v>
       </c>
       <c r="Y4" t="n">
-        <v>325.4219052176592</v>
+        <v>614.8390752546201</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1979.48636361053</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="C5" t="n">
-        <v>1610.523846670118</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="D5" t="n">
-        <v>1252.258148063368</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="E5" t="n">
-        <v>866.4698954651235</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F5" t="n">
-        <v>859.52439471592</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2489.804864871581</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2489.804864871581</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2236.043079509672</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>1904.980192166102</v>
       </c>
       <c r="W5" t="n">
-        <v>2366.086203674652</v>
+        <v>1552.211536895988</v>
       </c>
       <c r="X5" t="n">
-        <v>2366.086203674652</v>
+        <v>1178.745778634908</v>
       </c>
       <c r="Y5" t="n">
-        <v>2366.086203674652</v>
+        <v>788.606446659096</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4649,13 +4649,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4670,25 +4670,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>689.9086980046678</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C7" t="n">
-        <v>520.9725150767609</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4749,28 +4749,28 @@
         <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>689.9086980046678</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>689.9086980046678</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>689.9086980046678</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>689.9086980046678</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>689.9086980046678</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>689.9086980046678</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>689.9086980046678</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>689.9086980046678</v>
+        <v>477.919485916526</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1705.877315537684</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1336.914798597272</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1336.914798597272</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1336.914798597272</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>2092.477155601806</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>2092.477155601806</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4889,16 +4889,16 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4907,7 +4907,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>101.7832764526926</v>
+        <v>68.281470188269</v>
       </c>
       <c r="C10" t="n">
-        <v>101.7832764526926</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>101.7832764526926</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>101.7832764526926</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>101.7832764526926</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>101.7832764526926</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>101.7832764526926</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4986,28 +4986,28 @@
         <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>322.5758555962227</v>
+        <v>470.7225141620388</v>
       </c>
       <c r="Y10" t="n">
-        <v>101.7832764526926</v>
+        <v>249.9299350185087</v>
       </c>
     </row>
     <row r="11">
@@ -5020,49 +5020,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>416.1091927888621</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>1070.832524924162</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L11" t="n">
-        <v>1521.86673817257</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M11" t="n">
-        <v>2055.398642844495</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N11" t="n">
-        <v>2602.177459903277</v>
+        <v>2883.993034926781</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>3763.957685256236</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5096,40 +5096,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N12" t="n">
         <v>1715.000032008795</v>
@@ -5141,7 +5141,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5150,7 +5150,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U12" t="n">
         <v>2043.809373447819</v>
@@ -5159,7 +5159,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X12" t="n">
         <v>1346.568408282342</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>264.4972173763014</v>
+        <v>413.3805104860112</v>
       </c>
       <c r="C13" t="n">
-        <v>95.56103444839442</v>
+        <v>413.3805104860112</v>
       </c>
       <c r="D13" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E13" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G13" t="n">
         <v>95.56103444839442</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258584</v>
+        <v>1695.367165644763</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384228</v>
+        <v>1406.264298770406</v>
       </c>
       <c r="V13" t="n">
-        <v>909.2731541783409</v>
+        <v>1151.579810564519</v>
       </c>
       <c r="W13" t="n">
-        <v>619.8559841413803</v>
+        <v>862.1626405275587</v>
       </c>
       <c r="X13" t="n">
-        <v>485.2897965198315</v>
+        <v>634.1730896295413</v>
       </c>
       <c r="Y13" t="n">
-        <v>264.4972173763014</v>
+        <v>413.3805104860112</v>
       </c>
     </row>
     <row r="14">
@@ -5254,55 +5254,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483406</v>
+        <v>2504.619866888351</v>
       </c>
       <c r="N14" t="n">
-        <v>3070.887536710053</v>
+        <v>3130.95002174635</v>
       </c>
       <c r="O14" t="n">
-        <v>3573.86000758939</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S14" t="n">
         <v>4667.761053946816</v>
@@ -5311,19 +5311,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5333,43 +5333,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089899</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J15" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320249</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
         <v>2125.96131142685</v>
@@ -5378,7 +5378,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5387,16 +5387,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
         <v>1346.568408282342</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C16" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D16" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J16" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5451,37 +5451,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384228</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V16" t="n">
-        <v>909.2731541783409</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W16" t="n">
-        <v>619.8559841413803</v>
+        <v>672.9018868019325</v>
       </c>
       <c r="X16" t="n">
-        <v>391.866433243363</v>
+        <v>444.9123359039152</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.0738540998329</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E17" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J17" t="n">
-        <v>416.1091927888621</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K17" t="n">
-        <v>1070.832524924162</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L17" t="n">
-        <v>1521.86673817257</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2055.398642844495</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N17" t="n">
-        <v>2602.177459903277</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5585,22 +5585,22 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839442</v>
+        <v>562.5269503710301</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839442</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J19" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S19" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T19" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W19" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X19" t="n">
-        <v>498.0020784221642</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="Y19" t="n">
-        <v>277.2094992786341</v>
+        <v>709.6864413838516</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G20" t="n">
         <v>435.1415336001585</v>
@@ -5749,55 +5749,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K20" t="n">
-        <v>1070.832524924161</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L20" t="n">
-        <v>1521.86673817257</v>
+        <v>1898.858917622689</v>
       </c>
       <c r="M20" t="n">
-        <v>2055.398642844494</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N20" t="n">
-        <v>2602.177459903276</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5807,46 +5807,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P21" t="n">
         <v>2436.460902902953</v>
@@ -5864,7 +5864,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5925,37 +5925,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>391.866433243363</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.0738540998329</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5977,13 +5977,13 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
@@ -5992,16 +5992,16 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>1070.832524924162</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1521.86673817257</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2055.398642844495</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>2602.177459903277</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
         <v>3482.142110232732</v>
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6092,16 +6092,16 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6171,22 +6171,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T25" t="n">
-        <v>1645.126626946791</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U25" t="n">
-        <v>1356.023760072435</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V25" t="n">
-        <v>1101.339271866548</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W25" t="n">
-        <v>811.9221018295875</v>
+        <v>1039.911652727605</v>
       </c>
       <c r="X25" t="n">
         <v>811.9221018295875</v>
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G26" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
@@ -6229,19 +6229,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1803.682313196074</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2337.214217867999</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N26" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P26" t="n">
         <v>4470.748294107237</v>
@@ -6259,19 +6259,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6296,7 +6296,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468565</v>
@@ -6305,28 +6305,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G28" t="n">
         <v>95.56103444839442</v>
@@ -6387,7 +6387,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6399,37 +6399,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U28" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.408799357142</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W28" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0020784221642</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786341</v>
+        <v>263.2638710736754</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
         <v>1646.988141143014</v>
@@ -6451,7 +6451,7 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G29" t="n">
         <v>435.1415336001585</v>
@@ -6463,19 +6463,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K29" t="n">
-        <v>1002.806306216376</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L29" t="n">
-        <v>1453.840519464784</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N29" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O29" t="n">
         <v>3482.142110232732</v>
@@ -6496,19 +6496,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6533,7 +6533,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468565</v>
@@ -6542,28 +6542,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>432.2000540015823</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="C31" t="n">
-        <v>263.2638710736754</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="D31" t="n">
-        <v>263.2638710736754</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="E31" t="n">
-        <v>263.2638710736754</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="F31" t="n">
-        <v>263.2638710736754</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6624,7 +6624,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6636,37 +6636,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T31" t="n">
-        <v>1644.746393431758</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U31" t="n">
-        <v>1606.732307116217</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="V31" t="n">
-        <v>1352.04781891033</v>
+        <v>1198.376021052696</v>
       </c>
       <c r="W31" t="n">
-        <v>1062.630648873369</v>
+        <v>991.0201431271173</v>
       </c>
       <c r="X31" t="n">
-        <v>834.6410979753522</v>
+        <v>763.0305922291</v>
       </c>
       <c r="Y31" t="n">
-        <v>613.848518831822</v>
+        <v>542.2380130855698</v>
       </c>
     </row>
     <row r="32">
@@ -6676,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L32" t="n">
-        <v>1971.087962216427</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2504.619866888352</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N32" t="n">
-        <v>3051.398683947134</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O32" t="n">
-        <v>3554.371154826471</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4267.726242273417</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6770,7 +6770,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
@@ -6779,13 +6779,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839442</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G34" t="n">
         <v>95.56103444839442</v>
@@ -6861,7 +6861,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6873,37 +6873,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T34" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1163.957642384228</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V34" t="n">
-        <v>909.2731541783409</v>
+        <v>1352.04781891033</v>
       </c>
       <c r="W34" t="n">
-        <v>619.8559841413803</v>
+        <v>1062.630648873369</v>
       </c>
       <c r="X34" t="n">
-        <v>391.866433243363</v>
+        <v>834.6410979753522</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.0738540998329</v>
+        <v>613.848518831822</v>
       </c>
     </row>
     <row r="35">
@@ -6922,34 +6922,34 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089259</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K35" t="n">
-        <v>1002.806306216376</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L35" t="n">
-        <v>1453.840519464784</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M35" t="n">
-        <v>2432.390822294613</v>
+        <v>2215.249704195856</v>
       </c>
       <c r="N35" t="n">
-        <v>2979.169639353395</v>
+        <v>2762.028521254639</v>
       </c>
       <c r="O35" t="n">
         <v>3482.142110232732</v>
@@ -7007,7 +7007,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
@@ -7016,22 +7016,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P36" t="n">
         <v>2436.460902902953</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="C37" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D37" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E37" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F37" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H37" t="n">
         <v>95.56103444839442</v>
@@ -7098,7 +7098,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L37" t="n">
         <v>661.2306482927024</v>
@@ -7110,37 +7110,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P37" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S37" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T37" t="n">
-        <v>1453.060509258584</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="U37" t="n">
-        <v>1437.79612418831</v>
+        <v>1385.724257814701</v>
       </c>
       <c r="V37" t="n">
-        <v>1183.111635982423</v>
+        <v>1147.680357934326</v>
       </c>
       <c r="W37" t="n">
-        <v>893.6944659454626</v>
+        <v>858.2631878973651</v>
       </c>
       <c r="X37" t="n">
-        <v>665.7049150474453</v>
+        <v>630.2736369993478</v>
       </c>
       <c r="Y37" t="n">
-        <v>444.9123359039152</v>
+        <v>409.4810578558177</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
@@ -7168,34 +7168,34 @@
         <v>435.1415336001586</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1236.699401366028</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M38" t="n">
-        <v>2215.249704195857</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N38" t="n">
-        <v>2979.169639353395</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7244,7 +7244,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
@@ -7253,13 +7253,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>529.525731183237</v>
+        <v>578.4172407837245</v>
       </c>
       <c r="C40" t="n">
-        <v>360.5895482553301</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D40" t="n">
-        <v>360.5895482553301</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E40" t="n">
-        <v>360.5895482553301</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F40" t="n">
-        <v>360.5895482553301</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G40" t="n">
-        <v>192.8867116300491</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7335,7 +7335,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L40" t="n">
         <v>661.2306482927024</v>
@@ -7347,37 +7347,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P40" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S40" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T40" t="n">
-        <v>1764.65758193153</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U40" t="n">
-        <v>1522.409519467632</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V40" t="n">
-        <v>1267.725031261745</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="W40" t="n">
-        <v>978.3078612247845</v>
+        <v>998.7893082582079</v>
       </c>
       <c r="X40" t="n">
-        <v>750.3183103267671</v>
+        <v>770.7997573601906</v>
       </c>
       <c r="Y40" t="n">
-        <v>529.525731183237</v>
+        <v>760.0657056139643</v>
       </c>
     </row>
     <row r="41">
@@ -7393,13 +7393,13 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G41" t="n">
         <v>435.1415336001585</v>
@@ -7411,19 +7411,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>416.1091927888629</v>
       </c>
       <c r="K41" t="n">
-        <v>785.6651881176194</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L41" t="n">
-        <v>1236.699401366028</v>
+        <v>1521.866738172571</v>
       </c>
       <c r="M41" t="n">
-        <v>2215.249704195857</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N41" t="n">
-        <v>2762.028521254639</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O41" t="n">
         <v>3482.142110232732</v>
@@ -7481,7 +7481,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
@@ -7490,22 +7490,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P42" t="n">
         <v>2436.460902902953</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>651.8626051473628</v>
+        <v>402.87788887324</v>
       </c>
       <c r="C43" t="n">
-        <v>651.8626051473628</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D43" t="n">
-        <v>501.7459657350271</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E43" t="n">
-        <v>353.832872152634</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F43" t="n">
-        <v>353.832872152634</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G43" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
         <v>95.56103444839442</v>
@@ -7572,7 +7572,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L43" t="n">
         <v>661.2306482927024</v>
@@ -7584,37 +7584,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P43" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S43" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T43" t="n">
-        <v>1644.746393431758</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="U43" t="n">
-        <v>1644.746393431758</v>
+        <v>1577.410141987875</v>
       </c>
       <c r="V43" t="n">
-        <v>1390.061905225871</v>
+        <v>1322.725653781988</v>
       </c>
       <c r="W43" t="n">
-        <v>1100.64473518891</v>
+        <v>1033.308483745027</v>
       </c>
       <c r="X43" t="n">
-        <v>872.655184290893</v>
+        <v>805.3189328470098</v>
       </c>
       <c r="Y43" t="n">
-        <v>651.8626051473628</v>
+        <v>584.5263537034797</v>
       </c>
     </row>
     <row r="44">
@@ -7648,13 +7648,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>1002.806306216376</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1453.840519464784</v>
       </c>
       <c r="M44" t="n">
         <v>2432.390822294613</v>
@@ -7675,10 +7675,10 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U44" t="n">
         <v>4208.252829604875</v>
@@ -7690,10 +7690,10 @@
         <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7718,7 +7718,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468565</v>
@@ -7727,28 +7727,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K45" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>782.1255161526733</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="C46" t="n">
-        <v>613.1893332247664</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D46" t="n">
-        <v>463.0726938124307</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E46" t="n">
-        <v>463.0726938124307</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F46" t="n">
-        <v>463.0726938124307</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G46" t="n">
-        <v>295.3698571871496</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>149.1526704050074</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
@@ -7809,7 +7809,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L46" t="n">
         <v>661.2306482927024</v>
@@ -7821,37 +7821,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P46" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S46" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T46" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>1667.240599230347</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V46" t="n">
-        <v>1412.556111024461</v>
+        <v>1131.790067521631</v>
       </c>
       <c r="W46" t="n">
-        <v>1412.556111024461</v>
+        <v>842.3728974846707</v>
       </c>
       <c r="X46" t="n">
-        <v>1184.566560126443</v>
+        <v>614.3833465866534</v>
       </c>
       <c r="Y46" t="n">
-        <v>963.773980982913</v>
+        <v>393.5907674431232</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>314.1961381494455</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>261.8185614859236</v>
       </c>
       <c r="Q3" t="n">
-        <v>55.86574532263779</v>
+        <v>55.86574532263776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8537,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8549,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8689,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>132.9990175570123</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8707,13 +8707,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>315.167921710932</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8932,22 +8932,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>80.35488666587548</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>229.1543674071818</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>132.9990175570123</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476844</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9403,10 +9403,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>288.0478149561023</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>344.7025836476847</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9640,7 +9640,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>288.0478149561032</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9877,19 +9877,19 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>315.1679217109319</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10114,19 +10114,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>219.3344627260164</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10363,16 +10363,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>205.0727796301213</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10588,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>219.3344627260164</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>219.3344627260169</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>219.3344627260162</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,22 +11059,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>132.9990175570132</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>219.3344627260163</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11299,13 +11299,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>219.3344627260167</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>344.7025836476839</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,10 +23418,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>150.9514371522695</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>92.48912964370385</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>52.51544363394765</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>34.14408407924404</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23910,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.0742887270132</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24147,7 +24147,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>16.14213605696679</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>101.213303841278</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>226.0860865689205</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>16.14213605696636</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>91.26811680410505</v>
       </c>
     </row>
     <row r="29">
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24858,7 +24858,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,19 +24888,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>248.5778927532274</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>81.24067919026771</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>63.20292720900977</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,13 +25365,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>271.1000969860415</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>16.47418244225636</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>46.38625636635376</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>207.9579421233307</v>
       </c>
     </row>
     <row r="41">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>29.02894347705896</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>55.09170384615189</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>43.29670081279127</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>131.3595915398109</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>726921.4511719454</v>
+        <v>726921.4511719453</v>
       </c>
     </row>
     <row r="3">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>663099.7844423888</v>
+        <v>663099.7844423887</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>663099.7844423888</v>
+        <v>663099.7844423889</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>663099.7844423889</v>
+        <v>663099.7844423888</v>
       </c>
     </row>
     <row r="16">
@@ -26319,43 +26319,43 @@
         <v>779989.681371069</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="E2" t="n">
-        <v>754455.3950852677</v>
+        <v>754455.3950852674</v>
       </c>
       <c r="F2" t="n">
-        <v>754455.3950852673</v>
+        <v>754455.3950852675</v>
       </c>
       <c r="G2" t="n">
         <v>754455.3950852677</v>
       </c>
       <c r="H2" t="n">
-        <v>754455.3950852677</v>
+        <v>754455.3950852678</v>
       </c>
       <c r="I2" t="n">
+        <v>754455.3950852674</v>
+      </c>
+      <c r="J2" t="n">
         <v>754455.3950852676</v>
       </c>
-      <c r="J2" t="n">
-        <v>754455.3950852677</v>
-      </c>
       <c r="K2" t="n">
-        <v>754455.3950852676</v>
+        <v>754455.3950852678</v>
       </c>
       <c r="L2" t="n">
         <v>754455.3950852677</v>
       </c>
       <c r="M2" t="n">
-        <v>754455.395085268</v>
+        <v>754455.3950852678</v>
       </c>
       <c r="N2" t="n">
-        <v>754455.3950852682</v>
+        <v>754455.3950852676</v>
       </c>
       <c r="O2" t="n">
-        <v>754455.3950852676</v>
+        <v>754455.3950852681</v>
       </c>
       <c r="P2" t="n">
-        <v>754455.3950852678</v>
+        <v>754455.3950852677</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>493391.6844106481</v>
+        <v>493391.6844106483</v>
       </c>
       <c r="C3" t="n">
-        <v>91792.63957446898</v>
+        <v>91792.63957446886</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>154726.5356832159</v>
+        <v>154726.535683216</v>
       </c>
       <c r="K3" t="n">
-        <v>21342.09858220077</v>
+        <v>21342.09858220075</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>5.174841908751398e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>235704.9591760457</v>
+        <v>235704.9591760456</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
@@ -26426,40 +26426,40 @@
         <v>209922.4154630333</v>
       </c>
       <c r="E4" t="n">
+        <v>28561.83935289576</v>
+      </c>
+      <c r="F4" t="n">
         <v>28561.83935289575</v>
       </c>
-      <c r="F4" t="n">
-        <v>28561.83935289574</v>
-      </c>
       <c r="G4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="H4" t="n">
-        <v>28561.83935289573</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="I4" t="n">
         <v>28561.83935289575</v>
       </c>
       <c r="J4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289579</v>
       </c>
       <c r="K4" t="n">
-        <v>28561.83935289576</v>
+        <v>28561.83935289578</v>
       </c>
       <c r="L4" t="n">
-        <v>28561.83935289576</v>
+        <v>28561.83935289577</v>
       </c>
       <c r="M4" t="n">
-        <v>28561.83935289576</v>
+        <v>28561.83935289572</v>
       </c>
       <c r="N4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289582</v>
       </c>
       <c r="O4" t="n">
         <v>28561.83935289576</v>
       </c>
       <c r="P4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289577</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76261.10613140123</v>
+        <v>76261.10613140126</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26481,10 +26481,10 @@
         <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
         <v>96383.51825371364</v>
@@ -26493,25 +26493,25 @@
         <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-25368.06834702578</v>
+        <v>-25368.06834702592</v>
       </c>
       <c r="C6" t="n">
-        <v>395415.5482701573</v>
+        <v>395415.5482701574</v>
       </c>
       <c r="D6" t="n">
         <v>487208.1878446263</v>
       </c>
       <c r="E6" t="n">
-        <v>-98539.33141700631</v>
+        <v>-97934.57200497451</v>
       </c>
       <c r="F6" t="n">
-        <v>628838.0825764</v>
+        <v>629442.8419884326</v>
       </c>
       <c r="G6" t="n">
-        <v>628838.0825764005</v>
+        <v>629442.8419884326</v>
       </c>
       <c r="H6" t="n">
-        <v>628838.0825764005</v>
+        <v>629442.8419884327</v>
       </c>
       <c r="I6" t="n">
-        <v>628838.0825764004</v>
+        <v>629442.8419884322</v>
       </c>
       <c r="J6" t="n">
-        <v>474111.5468931844</v>
+        <v>474716.3063052165</v>
       </c>
       <c r="K6" t="n">
-        <v>607495.9839941995</v>
+        <v>608100.743406232</v>
       </c>
       <c r="L6" t="n">
-        <v>628838.0825764005</v>
+        <v>629442.8419884326</v>
       </c>
       <c r="M6" t="n">
-        <v>499195.7677374558</v>
+        <v>499800.527149488</v>
       </c>
       <c r="N6" t="n">
-        <v>628838.0825764009</v>
+        <v>629442.8419884323</v>
       </c>
       <c r="O6" t="n">
-        <v>628838.0825764004</v>
+        <v>629442.8419884329</v>
       </c>
       <c r="P6" t="n">
-        <v>628838.0825764006</v>
+        <v>629442.8419884326</v>
       </c>
     </row>
   </sheetData>
@@ -26721,7 +26721,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435498</v>
+        <v>306.3599178435499</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712477</v>
+        <v>591.3628276712478</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26940,10 +26940,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>-3.250528837155401e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.468552385939247e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435498</v>
+        <v>306.3599178435499</v>
       </c>
       <c r="C3" t="n">
-        <v>71.38374637353684</v>
+        <v>71.38374637353672</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26971,7 +26971,7 @@
         <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712477</v>
+        <v>591.3628276712478</v>
       </c>
       <c r="C4" t="n">
-        <v>82.92444508330784</v>
+        <v>82.92444508330777</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712477</v>
+        <v>591.3628276712478</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330784</v>
+        <v>82.92444508330777</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712477</v>
+        <v>591.3628276712478</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330784</v>
+        <v>82.92444508330777</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>373.1904363836088</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>326.8617025836455</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>162.9947207958794</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>72.5047714517431</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>180.9550379164568</v>
       </c>
       <c r="T2" t="n">
-        <v>217.7045308089147</v>
+        <v>100.4050178483865</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27472,10 +27472,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.6845543210566</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>7.556927764242218</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27505,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.24433418100828</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>84.99714790429005</v>
       </c>
       <c r="T3" t="n">
         <v>197.5086460108761</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>80.27348839483562</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>19.71768545086172</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>138.8367272514146</v>
       </c>
       <c r="J4" t="n">
-        <v>54.30080173848775</v>
+        <v>54.30080173848773</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.90169565731837</v>
+        <v>39.90169565731835</v>
       </c>
       <c r="R4" t="n">
         <v>152.4531265631663</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>92.11266026341343</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>23.62333149860811</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>75.9575352435776</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27782,13 +27782,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>137.9498585953234</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>26.37220616258594</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>98.95375469339439</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>153.0517176144023</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>132.8036892948704</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -30288,7 +30288,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.231597659672561</v>
+        <v>1.231597659672562</v>
       </c>
       <c r="H2" t="n">
         <v>12.61309953212162</v>
       </c>
       <c r="I2" t="n">
-        <v>47.48116877452646</v>
+        <v>47.48116877452647</v>
       </c>
       <c r="J2" t="n">
-        <v>104.5303118676341</v>
+        <v>104.5303118676342</v>
       </c>
       <c r="K2" t="n">
         <v>156.6638408015737</v>
       </c>
       <c r="L2" t="n">
-        <v>194.3553476787778</v>
+        <v>194.3553476787779</v>
       </c>
       <c r="M2" t="n">
         <v>216.2577725589798</v>
       </c>
       <c r="N2" t="n">
-        <v>219.7570494095244</v>
+        <v>219.7570494095245</v>
       </c>
       <c r="O2" t="n">
-        <v>207.5103501811554</v>
+        <v>207.5103501811555</v>
       </c>
       <c r="P2" t="n">
-        <v>177.105282957989</v>
+        <v>177.1052829579891</v>
       </c>
       <c r="Q2" t="n">
         <v>132.9986917709654</v>
       </c>
       <c r="R2" t="n">
-        <v>77.36434648940659</v>
+        <v>77.36434648940661</v>
       </c>
       <c r="S2" t="n">
-        <v>28.06503166978851</v>
+        <v>28.06503166978852</v>
       </c>
       <c r="T2" t="n">
-        <v>5.391318755216639</v>
+        <v>5.39131875521664</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09852781277380486</v>
+        <v>0.0985278127738049</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6589628421540505</v>
+        <v>0.6589628421540508</v>
       </c>
       <c r="H3" t="n">
-        <v>6.364193765014121</v>
+        <v>6.364193765014122</v>
       </c>
       <c r="I3" t="n">
         <v>22.6879750478478</v>
       </c>
       <c r="J3" t="n">
-        <v>62.25753764403686</v>
+        <v>62.25753764403689</v>
       </c>
       <c r="K3" t="n">
-        <v>106.4080480683582</v>
+        <v>106.4080480683583</v>
       </c>
       <c r="L3" t="n">
-        <v>143.0787521966503</v>
+        <v>143.0787521966504</v>
       </c>
       <c r="M3" t="n">
-        <v>166.9661552247346</v>
+        <v>166.9661552247347</v>
       </c>
       <c r="N3" t="n">
-        <v>171.3852525302326</v>
+        <v>171.3852525302327</v>
       </c>
       <c r="O3" t="n">
         <v>156.7840232382929</v>
       </c>
       <c r="P3" t="n">
-        <v>125.8330009723818</v>
+        <v>125.8330009723819</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.11602876338372</v>
+        <v>84.11602876338375</v>
       </c>
       <c r="R3" t="n">
-        <v>40.91349997163483</v>
+        <v>40.91349997163485</v>
       </c>
       <c r="S3" t="n">
-        <v>12.23994577422106</v>
+        <v>12.23994577422107</v>
       </c>
       <c r="T3" t="n">
-        <v>2.656082683945492</v>
+        <v>2.656082683945493</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0433528185627665</v>
+        <v>0.04335281856276652</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5524523108654176</v>
+        <v>0.5524523108654178</v>
       </c>
       <c r="H4" t="n">
-        <v>4.91180327296708</v>
+        <v>4.911803272967082</v>
       </c>
       <c r="I4" t="n">
-        <v>16.61374767584365</v>
+        <v>16.61374767584366</v>
       </c>
       <c r="J4" t="n">
-        <v>39.05837837818503</v>
+        <v>39.05837837818504</v>
       </c>
       <c r="K4" t="n">
-        <v>64.18491393509123</v>
+        <v>64.18491393509126</v>
       </c>
       <c r="L4" t="n">
-        <v>82.13459174448219</v>
+        <v>82.13459174448222</v>
       </c>
       <c r="M4" t="n">
-        <v>86.59941087502177</v>
+        <v>86.5994108750218</v>
       </c>
       <c r="N4" t="n">
-        <v>84.54027044361438</v>
+        <v>84.5402704436144</v>
       </c>
       <c r="O4" t="n">
-        <v>78.08662299395924</v>
+        <v>78.08662299395927</v>
       </c>
       <c r="P4" t="n">
-        <v>66.81659585230466</v>
+        <v>66.81659585230469</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.26034759437601</v>
+        <v>46.26034759437604</v>
       </c>
       <c r="R4" t="n">
         <v>24.84026481400323</v>
       </c>
       <c r="S4" t="n">
-        <v>9.627737090263683</v>
+        <v>9.627737090263688</v>
       </c>
       <c r="T4" t="n">
-        <v>2.360478055515875</v>
+        <v>2.360478055515876</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03013376241084099</v>
+        <v>0.03013376241084101</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31849,7 +31849,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
         <v>609.6478166837925</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34444,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34532,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34550,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.58102251302161</v>
+        <v>92.58102251302165</v>
       </c>
       <c r="K2" t="n">
-        <v>260.7194023277578</v>
+        <v>260.7194023277579</v>
       </c>
       <c r="L2" t="n">
-        <v>376.250147259241</v>
+        <v>376.2501472592411</v>
       </c>
       <c r="M2" t="n">
-        <v>435.4250728245395</v>
+        <v>435.4250728245396</v>
       </c>
       <c r="N2" t="n">
         <v>427.6909102249177</v>
       </c>
       <c r="O2" t="n">
-        <v>358.212320022214</v>
+        <v>358.2123200222141</v>
       </c>
       <c r="P2" t="n">
-        <v>267.6709953742021</v>
+        <v>267.6709953742022</v>
       </c>
       <c r="Q2" t="n">
         <v>123.0079925564206</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>61.510946317779</v>
+        <v>61.51094631777903</v>
       </c>
       <c r="K3" t="n">
         <v>233.0318461065779</v>
       </c>
       <c r="L3" t="n">
-        <v>318.7205105662217</v>
+        <v>375.3647177202354</v>
       </c>
       <c r="M3" t="n">
-        <v>490.5371850527162</v>
+        <v>490.5371850527163</v>
       </c>
       <c r="N3" t="n">
-        <v>519.3859147904528</v>
+        <v>519.3859147904529</v>
       </c>
       <c r="O3" t="n">
         <v>408.050098070578</v>
       </c>
       <c r="P3" t="n">
-        <v>310.3213621979887</v>
+        <v>253.6771550439752</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34859,10 +34859,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.91542210920838</v>
+        <v>41.91542210920841</v>
       </c>
       <c r="L4" t="n">
-        <v>109.7246170047983</v>
+        <v>109.7246170047984</v>
       </c>
       <c r="M4" t="n">
         <v>126.1832878368624</v>
@@ -34874,7 +34874,7 @@
         <v>102.6717509079989</v>
       </c>
       <c r="P4" t="n">
-        <v>64.09515511719815</v>
+        <v>64.09515511719817</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35257,7 +35257,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35269,7 +35269,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>323.7860185257249</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302268</v>
@@ -35427,13 +35427,13 @@
         <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>713.9299079303039</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35497,7 +35497,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
         <v>478.3061046004592</v>
@@ -35649,25 +35649,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>632.6567220787867</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P14" t="n">
-        <v>627.9163536265537</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
         <v>125.3296184152072</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>323.7860185257249</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359034</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,25 +36123,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>625.2391015115028</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>800.2926980400166</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>625.2391015115037</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923322</v>
@@ -36372,7 +36372,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908545</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N26" t="n">
-        <v>867.4697571238434</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,25 +36834,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>556.5257492814169</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
-        <v>455.8670844338408</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,25 +37308,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>556.5257492814169</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>727.3874636142359</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N38" t="n">
-        <v>771.6362981389277</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>323.7860185257257</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>727.3874636142355</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,25 +38019,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>556.5257492814171</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>883.6236994779107</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38189,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
